--- a/R/CropModels/Soybean/SoybeanParams.xlsx
+++ b/R/CropModels/Soybean/SoybeanParams.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novo\Desktop\NIPE-UNICAMP\CROPGRO_Studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embrapa\2020\ECOSMOS\ECOSMOS\R\CropModels\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19930D3-C12C-45DC-A832-7B8B1C1CD0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="-28920" yWindow="-6075" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SBGRO047.CUL" sheetId="2" r:id="rId1"/>
@@ -17,26 +18,28 @@
     <sheet name="SBGRO047.SPE" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SBGRO047.SPE!$A$1:$C$503</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SBGRO047.SPE!$A$1:$C$504</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="381">
   <si>
     <t>MG</t>
   </si>
   <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>THVAR</t>
   </si>
   <si>
@@ -337,84 +340,12 @@
     <t>XLMAXT (6 VALUES)</t>
   </si>
   <si>
-    <t>XLMAXT_1</t>
-  </si>
-  <si>
-    <t>FNPGT_1</t>
-  </si>
-  <si>
-    <t>FNPGN_1</t>
-  </si>
-  <si>
-    <t>FNPGN_2</t>
-  </si>
-  <si>
-    <t>FNPGN_3</t>
-  </si>
-  <si>
-    <t>FNPGN_4</t>
-  </si>
-  <si>
-    <t>FNPGT_2</t>
-  </si>
-  <si>
-    <t>FNPGT_3</t>
-  </si>
-  <si>
-    <t>FNPGT_4</t>
-  </si>
-  <si>
-    <t>XLMAXT_2</t>
-  </si>
-  <si>
-    <t>XLMAXT_3</t>
-  </si>
-  <si>
-    <t>XLMAXT_4</t>
-  </si>
-  <si>
-    <t>XLMAXT_5</t>
-  </si>
-  <si>
-    <t>XLMAXT_6</t>
-  </si>
-  <si>
     <t>YLMAXT (6 VALUES)</t>
   </si>
   <si>
-    <t>YLMAXT_1</t>
-  </si>
-  <si>
-    <t>YLMAXT_2</t>
-  </si>
-  <si>
-    <t>YLMAXT_3</t>
-  </si>
-  <si>
-    <t>YLMAXT_4</t>
-  </si>
-  <si>
-    <t>YLMAXT_5</t>
-  </si>
-  <si>
-    <t>YLMAXT_6</t>
-  </si>
-  <si>
     <t>FNPGL(4),TYPPGL-TMIN EFFECT-LEAF PG</t>
   </si>
   <si>
-    <t>FNPGL_1</t>
-  </si>
-  <si>
-    <t>FNPGL_2</t>
-  </si>
-  <si>
-    <t>FNPGL_3</t>
-  </si>
-  <si>
-    <t>FNPGL_4</t>
-  </si>
-  <si>
     <t>FNPGN_CTYPE</t>
   </si>
   <si>
@@ -460,66 +391,6 @@
     <t>YPGSLW(1-10)</t>
   </si>
   <si>
-    <t>XPGSLW_1</t>
-  </si>
-  <si>
-    <t>XPGSLW_2</t>
-  </si>
-  <si>
-    <t>XPGSLW_3</t>
-  </si>
-  <si>
-    <t>XPGSLW_4</t>
-  </si>
-  <si>
-    <t>XPGSLW_5</t>
-  </si>
-  <si>
-    <t>XPGSLW_6</t>
-  </si>
-  <si>
-    <t>XPGSLW_7</t>
-  </si>
-  <si>
-    <t>XPGSLW_8</t>
-  </si>
-  <si>
-    <t>XPGSLW_9</t>
-  </si>
-  <si>
-    <t>XPGSLW_10</t>
-  </si>
-  <si>
-    <t>YPGSLW_1</t>
-  </si>
-  <si>
-    <t>YPGSLW_2</t>
-  </si>
-  <si>
-    <t>YPGSLW_3</t>
-  </si>
-  <si>
-    <t>YPGSLW_4</t>
-  </si>
-  <si>
-    <t>YPGSLW_5</t>
-  </si>
-  <si>
-    <t>YPGSLW_6</t>
-  </si>
-  <si>
-    <t>YPGSLW_7</t>
-  </si>
-  <si>
-    <t>YPGSLW_8</t>
-  </si>
-  <si>
-    <t>YPGSLW_9</t>
-  </si>
-  <si>
-    <t>YPGSLW_10</t>
-  </si>
-  <si>
     <t>!*RESPIRATION PARAMETERS</t>
   </si>
   <si>
@@ -1280,13 +1151,53 @@
   </si>
   <si>
     <t>equivalente ao 'soybean1' no padrão ECOSMOS atual</t>
+  </si>
+  <si>
+    <t>FNPGN</t>
+  </si>
+  <si>
+    <t>FNPGT</t>
+  </si>
+  <si>
+    <t>XLMAXT</t>
+  </si>
+  <si>
+    <t>YLMAXT</t>
+  </si>
+  <si>
+    <t>FNPGL</t>
+  </si>
+  <si>
+    <t>XPGSLW</t>
+  </si>
+  <si>
+    <r>
+      <t>TM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>XPODF</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1332,6 +1243,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1359,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1391,6 +1310,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1670,14 +1590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,135 +1610,135 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="V1" s="11" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="Y1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3">
         <v>13</v>
@@ -1953,13 +1873,13 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3">
         <v>12.83</v>
@@ -2094,13 +2014,13 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3">
         <v>12.58</v>
@@ -2235,13 +2155,13 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>13.59</v>
@@ -2376,7 +2296,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2305,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>SBGRO047.ECO!$A$2:$A$31</xm:f>
           </x14:formula1>
@@ -2398,14 +2318,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,72 +2336,72 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>7</v>
@@ -2540,10 +2460,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -2602,10 +2522,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -2664,10 +2584,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -2726,10 +2646,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -2788,10 +2708,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -2850,10 +2770,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -2912,10 +2832,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -2974,10 +2894,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -3036,10 +2956,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -3098,10 +3018,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -3160,10 +3080,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -3222,10 +3142,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -3284,10 +3204,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -3346,10 +3266,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -3408,10 +3328,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -3470,10 +3390,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -3532,10 +3452,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -3594,10 +3514,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -3656,10 +3576,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -3718,10 +3638,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
@@ -3780,10 +3700,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -3842,10 +3762,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
         <v>6</v>
@@ -3904,10 +3824,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3">
         <v>7</v>
@@ -3966,10 +3886,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3">
         <v>7</v>
@@ -4028,10 +3948,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3">
         <v>8</v>
@@ -4090,10 +4010,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3">
         <v>9</v>
@@ -4152,10 +4072,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
@@ -4214,10 +4134,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -4276,10 +4196,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -4338,16 +4258,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D503"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K367" sqref="K367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4359,21 +4280,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3">
         <v>40</v>
@@ -4381,10 +4302,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3">
         <v>61</v>
@@ -4392,10 +4313,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3">
         <v>0.67</v>
@@ -4403,10 +4324,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3">
         <v>0.1</v>
@@ -4414,10 +4335,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
       </c>
       <c r="C6" s="3">
         <v>79</v>
@@ -4425,10 +4346,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3">
         <v>2.08</v>
@@ -4436,10 +4357,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3">
         <v>1.06E-2</v>
@@ -4447,322 +4368,284 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="C9" s="3">
         <v>1.9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="3">
         <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>107</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>373</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>109</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>114</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>117</v>
+        <v>375</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>124</v>
+        <v>376</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>125</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>127</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3">
         <v>541</v>
@@ -4770,10 +4653,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C37" s="3">
         <v>0.2</v>
@@ -4781,10 +4664,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C38" s="3">
         <v>0.8</v>
@@ -4792,10 +4675,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -4803,10 +4686,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C40" s="3">
         <v>3.5999999999999999E-3</v>
@@ -4814,10 +4697,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3">
         <v>4.0000000000000002E-4</v>
@@ -4825,10 +4708,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C42" s="3">
         <v>0.3</v>
@@ -4836,10 +4719,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C43" s="3">
         <v>4.9000000000000004</v>
@@ -4847,10 +4730,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3">
         <v>1.03</v>
@@ -4858,24 +4741,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>377</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C46" s="3">
         <v>1E-3</v>
@@ -4883,10 +4763,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="C47" s="3">
         <v>2E-3</v>
@@ -4894,10 +4771,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C48" s="3">
         <v>3.0000000000000001E-3</v>
@@ -4905,10 +4779,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C49" s="3">
         <v>3.5000000000000001E-3</v>
@@ -4916,10 +4787,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C50" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4927,10 +4795,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3">
         <v>5.0000000000000001E-3</v>
@@ -4938,10 +4803,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3">
         <v>6.0000000000000001E-3</v>
@@ -4949,10 +4811,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3">
         <v>8.0000000000000002E-3</v>
@@ -4960,10 +4819,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>377</v>
       </c>
       <c r="C54" s="3">
         <v>0.01</v>
@@ -4971,24 +4830,18 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="C55" s="3">
         <v>0.16200000000000001</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3">
         <v>0.67900000000000005</v>
@@ -4996,10 +4849,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C57" s="3">
         <v>0.86699999999999999</v>
@@ -5007,10 +4857,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C58" s="3">
         <v>0.96599999999999997</v>
@@ -5018,10 +4865,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -5029,10 +4873,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="C60" s="3">
         <v>1.0269999999999999</v>
@@ -5040,10 +4881,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C61" s="3">
         <v>1.069</v>
@@ -5051,10 +4889,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="C62" s="3">
         <v>1.1000000000000001</v>
@@ -5062,10 +4897,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3">
         <v>1.141</v>
@@ -5073,10 +4905,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C64" s="3">
         <v>1.167</v>
@@ -5084,10 +4913,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="C65" s="3">
         <v>1.1000000000000001</v>
@@ -5095,10 +4924,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C66" s="3">
         <v>0.68</v>
@@ -5106,10 +4935,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C67" s="3">
         <v>3.5E-4</v>
@@ -5117,10 +4946,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C68" s="3">
         <v>4.0000000000000001E-3</v>
@@ -5128,10 +4957,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C69" s="3">
         <v>2.556</v>
@@ -5139,10 +4968,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C70" s="3">
         <v>2.556</v>
@@ -5150,10 +4979,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C71" s="3">
         <v>0.36</v>
@@ -5161,10 +4990,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C72" s="3">
         <v>2.83</v>
@@ -5172,10 +5001,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C73" s="3">
         <v>1.242</v>
@@ -5183,10 +5012,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C74" s="3">
         <v>3.1059999999999999</v>
@@ -5194,10 +5023,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C75" s="3">
         <v>2.1739999999999999</v>
@@ -5205,10 +5034,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="C76" s="3">
         <v>0.92900000000000005</v>
@@ -5216,10 +5045,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C77" s="3">
         <v>0.05</v>
@@ -5227,10 +5056,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C78" s="3">
         <v>1.1299999999999999</v>
@@ -5238,10 +5067,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="C79" s="3">
         <v>0.28499999999999998</v>
@@ -5249,10 +5078,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C80" s="3">
         <v>6.4000000000000001E-2</v>
@@ -5260,10 +5089,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="C81" s="3">
         <v>0.1</v>
@@ -5271,21 +5100,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="C82" s="3">
         <v>7</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C83" s="3">
         <v>6</v>
@@ -5293,7 +5122,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C84" s="3">
         <v>15</v>
@@ -5301,7 +5130,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
@@ -5309,7 +5138,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
@@ -5317,21 +5146,21 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="C87" s="3">
         <v>28</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C88" s="3">
         <v>26</v>
@@ -5339,7 +5168,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C89" s="3">
         <v>26</v>
@@ -5347,7 +5176,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
@@ -5355,7 +5184,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
@@ -5363,21 +5192,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B92" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="C92" s="3">
         <v>35</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C93" s="3">
         <v>30</v>
@@ -5385,7 +5214,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C94" s="3">
         <v>34</v>
@@ -5393,7 +5222,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -5401,7 +5230,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -5409,21 +5238,21 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B97" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="C97" s="3">
         <v>45</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C98" s="3">
         <v>45</v>
@@ -5431,7 +5260,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C99" s="3">
         <v>45</v>
@@ -5439,7 +5268,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
@@ -5447,7 +5276,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
@@ -5455,21 +5284,21 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C103" s="3">
         <v>2</v>
@@ -5477,7 +5306,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
@@ -5485,7 +5314,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C105" s="3">
         <v>4</v>
@@ -5493,7 +5322,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C106" s="3">
         <v>5</v>
@@ -5501,7 +5330,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C107" s="3">
         <v>6</v>
@@ -5509,7 +5338,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C108" s="3">
         <v>6</v>
@@ -5517,7 +5346,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C109" s="3">
         <v>6</v>
@@ -5525,7 +5354,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C110" s="3">
         <v>9</v>
@@ -5533,7 +5362,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C111" s="3">
         <v>9</v>
@@ -5541,7 +5370,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C112" s="3">
         <v>11</v>
@@ -5549,7 +5378,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C113" s="3">
         <v>6</v>
@@ -5557,7 +5386,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C114" s="3">
         <v>6</v>
@@ -5565,241 +5394,241 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B128" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B141" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -5807,7 +5636,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -5815,7 +5644,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C144" s="3">
         <v>2</v>
@@ -5823,7 +5652,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C145" s="3">
         <v>2</v>
@@ -5831,7 +5660,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C146" s="3">
         <v>2</v>
@@ -5839,7 +5668,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C147" s="3">
         <v>2</v>
@@ -5847,7 +5676,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C148" s="3">
         <v>2</v>
@@ -5855,7 +5684,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C149" s="3">
         <v>3</v>
@@ -5863,7 +5692,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C150" s="3">
         <v>3</v>
@@ -5871,7 +5700,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
@@ -5879,7 +5708,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C152" s="3">
         <v>2</v>
@@ -5887,7 +5716,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C153" s="3">
         <v>2</v>
@@ -5895,21 +5724,21 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B154" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="C154" s="3">
         <v>-0.2</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C155" s="3">
         <v>-0.2</v>
@@ -5917,7 +5746,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C156" s="3">
         <v>-0.4</v>
@@ -5925,7 +5754,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C157" s="3">
         <v>-0.4</v>
@@ -5933,7 +5762,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C158" s="3">
         <v>-0.4</v>
@@ -5941,7 +5770,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C159" s="3">
         <v>-0.4</v>
@@ -5949,7 +5778,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C160" s="3">
         <v>-0.4</v>
@@ -5957,7 +5786,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C161" s="3">
         <v>-0.4</v>
@@ -5965,7 +5794,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C162" s="3">
         <v>0.7</v>
@@ -5973,7 +5802,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C163" s="3">
         <v>0.7</v>
@@ -5981,7 +5810,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C164" s="3">
         <v>0</v>
@@ -5989,7 +5818,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C165" s="3">
         <v>-0.6</v>
@@ -5997,7 +5826,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C166" s="3">
         <v>-0.9</v>
@@ -6005,21 +5834,21 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="C167" s="3">
         <v>0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C168" s="3">
         <v>0</v>
@@ -6027,7 +5856,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C169" s="3">
         <v>0</v>
@@ -6035,7 +5864,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C170" s="3">
         <v>0</v>
@@ -6043,7 +5872,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C171" s="3">
         <v>0</v>
@@ -6051,7 +5880,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
@@ -6059,7 +5888,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C173" s="3">
         <v>0</v>
@@ -6067,7 +5896,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
@@ -6075,7 +5904,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C175" s="3">
         <v>0.4</v>
@@ -6083,7 +5912,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C176" s="3">
         <v>0.4</v>
@@ -6091,7 +5920,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
@@ -6099,7 +5928,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C178" s="3">
         <v>0</v>
@@ -6107,7 +5936,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C179" s="3">
         <v>0</v>
@@ -6115,21 +5944,21 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="B180" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="C180" s="3">
         <v>0</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C181" s="3">
         <v>0</v>
@@ -6137,7 +5966,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
@@ -6145,7 +5974,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C183" s="3">
         <v>0</v>
@@ -6153,7 +5982,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C184" s="3">
         <v>0</v>
@@ -6161,7 +5990,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C185" s="3">
         <v>0</v>
@@ -6169,7 +5998,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
@@ -6177,7 +6006,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
@@ -6185,7 +6014,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C188" s="3">
         <v>0</v>
@@ -6193,7 +6022,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C189" s="3">
         <v>0</v>
@@ -6201,7 +6030,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C190" s="3">
         <v>0</v>
@@ -6209,7 +6038,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C191" s="3">
         <v>0</v>
@@ -6217,7 +6046,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C192" s="3">
         <v>0</v>
@@ -6225,10 +6054,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B193" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
@@ -6236,10 +6065,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B194" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="C194" s="3">
         <v>0</v>
@@ -6247,10 +6076,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B195" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="C195" s="3">
         <v>180</v>
@@ -6258,10 +6087,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B196" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="C196" s="3">
         <v>350</v>
@@ -6269,10 +6098,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B197" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C197" s="3">
         <v>171.4</v>
@@ -6280,10 +6109,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B198" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C198" s="3">
         <v>5</v>
@@ -6291,10 +6120,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B199" t="s">
         <v>215</v>
-      </c>
-      <c r="B199" t="s">
-        <v>260</v>
       </c>
       <c r="C199" s="3">
         <v>950</v>
@@ -6302,10 +6131,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B200" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="C200" s="3">
         <v>250</v>
@@ -6313,10 +6142,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B201" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="C201" s="3">
         <v>-4.8000000000000001E-2</v>
@@ -6324,10 +6153,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B202" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="C202" s="3">
         <v>1.5</v>
@@ -6335,21 +6164,21 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B203" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C203" s="3">
         <v>0</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
@@ -6357,7 +6186,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C205" s="3">
         <v>2</v>
@@ -6365,7 +6194,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C206" s="3">
         <v>3</v>
@@ -6373,7 +6202,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C207" s="3">
         <v>4</v>
@@ -6381,7 +6210,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C208" s="3">
         <v>5</v>
@@ -6389,21 +6218,21 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B209" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="C209" s="3">
         <v>0</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C210" s="3">
         <v>20</v>
@@ -6411,7 +6240,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C211" s="3">
         <v>55</v>
@@ -6419,7 +6248,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C212" s="3">
         <v>110</v>
@@ -6427,7 +6256,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C213" s="3">
         <v>200</v>
@@ -6435,7 +6264,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C214" s="3">
         <v>320</v>
@@ -6443,21 +6272,21 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B215" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="C215" s="3">
         <v>-50</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C216" s="3">
         <v>0</v>
@@ -6465,7 +6294,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C217" s="3">
         <v>12</v>
@@ -6473,7 +6302,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C218" s="3">
         <v>22</v>
@@ -6481,7 +6310,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C219" s="3">
         <v>60</v>
@@ -6489,21 +6318,21 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B220" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="C220" s="3">
         <v>0.25</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C221" s="3">
         <v>0.25</v>
@@ -6511,7 +6340,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C222" s="3">
         <v>0.25</v>
@@ -6519,7 +6348,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C223" s="3">
         <v>1</v>
@@ -6527,7 +6356,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -6535,10 +6364,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B225" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C225" s="3">
         <v>0.05</v>
@@ -6546,10 +6375,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B226" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C226" s="3">
         <v>0.24</v>
@@ -6557,10 +6386,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B227" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="C227" s="3">
         <v>0.55000000000000004</v>
@@ -6568,10 +6397,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B228" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="C228" s="3">
         <v>0.7</v>
@@ -6579,21 +6408,21 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B229" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C229" s="3">
         <v>0</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C230" s="3">
         <v>1.5</v>
@@ -6601,7 +6430,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C231" s="3">
         <v>3.3</v>
@@ -6609,7 +6438,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C232" s="3">
         <v>5</v>
@@ -6617,7 +6446,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C233" s="3">
         <v>7.8</v>
@@ -6625,7 +6454,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C234" s="3">
         <v>10.5</v>
@@ -6633,7 +6462,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C235" s="3">
         <v>30</v>
@@ -6641,7 +6470,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C236" s="3">
         <v>40</v>
@@ -6649,21 +6478,21 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B237" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="C237" s="3">
         <v>0.41</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C238" s="3">
         <v>0.42</v>
@@ -6671,7 +6500,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C239" s="3">
         <v>0.42</v>
@@ -6679,7 +6508,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C240" s="3">
         <v>0.41</v>
@@ -6687,7 +6516,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C241" s="3">
         <v>0.36</v>
@@ -6695,7 +6524,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C242" s="3">
         <v>0.32</v>
@@ -6703,7 +6532,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C243" s="3">
         <v>0.31</v>
@@ -6711,7 +6540,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C244" s="3">
         <v>0.31</v>
@@ -6719,21 +6548,21 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B245" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="C245" s="3">
         <v>0.09</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C246" s="3">
         <v>0.13</v>
@@ -6741,7 +6570,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C247" s="3">
         <v>0.21</v>
@@ -6749,7 +6578,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C248" s="3">
         <v>0.28999999999999998</v>
@@ -6757,7 +6586,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C249" s="3">
         <v>0.37</v>
@@ -6765,7 +6594,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C250" s="3">
         <v>0.49</v>
@@ -6773,7 +6602,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C251" s="3">
         <v>0.49</v>
@@ -6781,7 +6610,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="C252" s="3">
         <v>0.49</v>
@@ -6789,10 +6618,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B253" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="C253" s="3">
         <v>0.57999999999999996</v>
@@ -6800,10 +6629,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B254" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="C254" s="3">
         <v>0.55000000000000004</v>
@@ -6811,10 +6640,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B255" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="C255" s="3">
         <v>0.40500000000000003</v>
@@ -6822,10 +6651,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B256" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="C256" s="3">
         <v>0.48</v>
@@ -6833,10 +6662,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="C257" s="3">
         <v>0.71099999999999997</v>
@@ -6844,10 +6673,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B258" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="C258" s="3">
         <v>0.315</v>
@@ -6855,10 +6684,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B259" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C259" s="3">
         <v>0.38</v>
@@ -6866,10 +6695,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="C260" s="3">
         <v>0.66400000000000003</v>
@@ -6877,10 +6706,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B261" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="C261" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6888,10 +6717,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B262" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="C262" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6899,10 +6728,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B263" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="C263" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6910,10 +6739,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B264" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C264" s="3">
         <v>0.02</v>
@@ -6921,10 +6750,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B265" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="C265" s="3">
         <v>0.28000000000000003</v>
@@ -6932,10 +6761,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B266" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="C266" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6943,10 +6772,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B267" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="C267" s="3">
         <v>2.5000000000000001E-2</v>
@@ -6954,10 +6783,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B268" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="C268" s="3">
         <v>0.05</v>
@@ -6965,10 +6794,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B269" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="C269" s="3">
         <v>0.02</v>
@@ -6976,10 +6805,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B270" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C270" s="3">
         <v>0.02</v>
@@ -6987,10 +6816,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B271" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="C271" s="3">
         <v>0.02</v>
@@ -6998,10 +6827,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B272" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="C272" s="3">
         <v>9.4E-2</v>
@@ -7009,10 +6838,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B273" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="C273" s="3">
         <v>0.05</v>
@@ -7020,10 +6849,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B274" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="C274" s="3">
         <v>5.7000000000000002E-2</v>
@@ -7031,10 +6860,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B275" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C275" s="3">
         <v>2.5000000000000001E-2</v>
@@ -7042,10 +6871,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B276" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C276" s="3">
         <v>0.03</v>
@@ -7053,10 +6882,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B277" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="C277" s="3">
         <v>4.5999999999999999E-2</v>
@@ -7064,10 +6893,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B278" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="C278" s="3">
         <v>0.05</v>
@@ -7075,10 +6904,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B279" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="C279" s="3">
         <v>0.05</v>
@@ -7086,10 +6915,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B280" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="C280" s="3">
         <v>0.05</v>
@@ -7097,10 +6926,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B281" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C281" s="3">
         <v>0.04</v>
@@ -7108,10 +6937,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B282" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C282" s="3">
         <v>0.04</v>
@@ -7119,10 +6948,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B283" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C283" s="3">
         <v>0.04</v>
@@ -7130,10 +6959,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B284" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="C284" s="3">
         <v>0.05</v>
@@ -7141,10 +6970,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B285" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="C285" s="3">
         <v>0.112</v>
@@ -7152,10 +6981,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B286" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C286" s="3">
         <v>0.35599999999999998</v>
@@ -7163,10 +6992,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B287" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C287" s="3">
         <v>0.08</v>
@@ -7174,10 +7003,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B288" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="C288" s="3">
         <v>0.03</v>
@@ -7185,10 +7014,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B289" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="C289" s="3">
         <v>0.3</v>
@@ -7196,10 +7025,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B290" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="C290" s="3">
         <v>5.6000000000000001E-2</v>
@@ -7207,10 +7036,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B291" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C291" s="3">
         <v>9.1999999999999998E-2</v>
@@ -7218,10 +7047,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B292" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="C292" s="3">
         <v>0.05</v>
@@ -7229,10 +7058,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B293" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C293" s="3">
         <v>0.25</v>
@@ -7240,10 +7069,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B294" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="C294" s="3">
         <v>3.5000000000000003E-2</v>
@@ -7251,10 +7080,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B295" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C295" s="3">
         <v>0.15</v>
@@ -7262,10 +7091,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B296" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="C296" s="3">
         <v>0.4</v>
@@ -7273,10 +7102,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B297" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="C297" s="3">
         <v>0.8</v>
@@ -7284,10 +7113,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B298" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="C298" s="3">
         <v>0.18</v>
@@ -7295,10 +7124,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B299" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="C299" s="3">
         <v>23.65</v>
@@ -7306,10 +7135,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B300" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="C300" s="3">
         <v>7.16</v>
@@ -7317,10 +7146,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B301" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="C301" s="7">
         <v>9.0800002200000004E-3</v>
@@ -7328,21 +7157,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="C302" s="12">
         <v>6</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C303" s="3">
         <v>21</v>
@@ -7350,7 +7179,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C304" s="3">
         <v>23.5</v>
@@ -7358,7 +7187,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C305" s="3">
         <v>41</v>
@@ -7366,10 +7195,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="C306" s="12" t="str">
         <f xml:space="preserve"> "QDR"</f>
@@ -7378,21 +7207,21 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B307" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="C307" s="3">
         <v>14</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C308" s="3">
         <v>21</v>
@@ -7400,7 +7229,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C309" s="3">
         <v>26.5</v>
@@ -7408,7 +7237,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C310" s="3">
         <v>40</v>
@@ -7416,10 +7245,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B311" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C311" s="3" t="str">
         <f xml:space="preserve"> "QDR"</f>
@@ -7428,10 +7257,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B312" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="C312" s="3">
         <v>0</v>
@@ -7439,10 +7268,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B313" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C313" s="3">
         <v>0.3</v>
@@ -7450,10 +7279,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B314" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C314" s="3">
         <v>0</v>
@@ -7461,21 +7290,21 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B315" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="C315" s="3">
         <v>0</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C316" s="3">
         <v>5</v>
@@ -7484,7 +7313,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C317" s="3">
         <v>20</v>
@@ -7493,7 +7322,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C318" s="3">
         <v>35</v>
@@ -7502,7 +7331,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C319" s="3">
         <v>45</v>
@@ -7511,7 +7340,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C320" s="3">
         <v>60</v>
@@ -7520,21 +7349,21 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B321" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C321" s="3">
         <v>1</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C322" s="3">
         <v>1</v>
@@ -7543,7 +7372,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C323" s="3">
         <v>1</v>
@@ -7552,7 +7381,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C324" s="3">
         <v>1</v>
@@ -7561,7 +7390,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C325" s="3">
         <v>0</v>
@@ -7570,7 +7399,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C326" s="3">
         <v>0</v>
@@ -7579,21 +7408,21 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B327" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="C327" s="3">
         <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C328" s="3">
         <v>0.5</v>
@@ -7602,7 +7431,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C329" s="3">
         <v>0.75</v>
@@ -7611,7 +7440,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
@@ -7620,21 +7449,21 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B331" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C331" s="3">
         <v>0</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C332" s="3">
         <v>0</v>
@@ -7643,7 +7472,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C333" s="3">
         <v>0</v>
@@ -7652,7 +7481,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C334" s="3">
         <v>0</v>
@@ -7661,10 +7490,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B335" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="C335" s="3">
         <v>15</v>
@@ -7672,10 +7501,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B336" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C336" s="3">
         <v>0.6</v>
@@ -7683,10 +7512,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B337" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="C337" s="3">
         <v>0</v>
@@ -7694,10 +7523,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B338" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C338" s="3">
         <v>100</v>
@@ -7705,21 +7534,21 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B339" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="C339" s="3">
         <v>0</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C340" s="3">
         <v>0.01</v>
@@ -7727,7 +7556,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C341" s="3">
         <v>0.25</v>
@@ -7735,7 +7564,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C342" s="3">
         <v>1</v>
@@ -7743,7 +7572,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C343" s="3">
         <v>1</v>
@@ -7751,21 +7580,21 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B344" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C344" s="3">
         <v>1</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C345" s="3">
         <v>1</v>
@@ -7773,7 +7602,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C346" s="3">
         <v>1</v>
@@ -7781,7 +7610,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C347" s="3">
         <v>1</v>
@@ -7789,7 +7618,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C348" s="3">
         <v>1</v>
@@ -7797,21 +7626,21 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B349" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="C349" s="3">
         <v>0</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C350" s="3">
         <v>0.5</v>
@@ -7819,7 +7648,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C351" s="3">
         <v>1</v>
@@ -7827,319 +7656,323 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C352" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B353" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C353" s="3">
         <v>0</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C354" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C355" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C356" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B357" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="C357" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B358" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="C358" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B359" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="C359" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B360" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="C360" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B361" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="C361" s="3">
         <v>0.26</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B362" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="C362" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B363" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C363" s="3">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B364" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="C364" s="3">
         <v>0.09</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B365" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C365" s="3">
         <v>0.15</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B366" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C366" s="3">
         <v>0.35</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="B367" t="s">
-        <v>200</v>
-      </c>
-      <c r="C367" s="3">
+        <v>379</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K367" s="15"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B368" t="s">
+        <v>155</v>
+      </c>
+      <c r="C368" s="3">
         <v>0.02</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B368" t="s">
-        <v>379</v>
-      </c>
-      <c r="C368" s="3">
-        <v>7500</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B369" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C369" s="3">
-        <v>0.1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B370" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="C370" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B371" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="C371" s="3">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B372" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C372" s="3">
-        <v>20</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B373" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="C373" s="3">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B374" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="C374" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B375" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C375" s="3">
         <v>0</v>
-      </c>
-      <c r="D375" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
+      </c>
+      <c r="B376" t="s">
+        <v>341</v>
       </c>
       <c r="C376" s="3">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C377" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C378" s="3">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B379" t="s">
-        <v>387</v>
+        <v>165</v>
       </c>
       <c r="C379" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D379" s="8" t="s">
-        <v>410</v>
+        <v>30</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
+      </c>
+      <c r="B380" t="s">
+        <v>342</v>
       </c>
       <c r="C380" s="3">
         <v>2.5</v>
       </c>
+      <c r="D380" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C381" s="3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C382" s="3">
         <v>2.6</v>
@@ -8147,43 +7980,40 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B383" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C383" s="3">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B384" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C384" s="3">
-        <v>0.04</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B385" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="C385" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B386" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="C386" s="3">
         <v>6.0000000000000001E-3</v>
@@ -8191,453 +8021,456 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="B387" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="C387" s="3">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B388" t="s">
-        <v>301</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>250</v>
+        <v>158</v>
+      </c>
+      <c r="C388" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B389" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B390" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B391" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B392" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B393" t="s">
-        <v>306</v>
-      </c>
-      <c r="C393" s="3">
-        <v>5</v>
-      </c>
-      <c r="D393" s="8" t="s">
-        <v>246</v>
+        <v>260</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="B394" t="s">
+        <v>261</v>
       </c>
       <c r="C394" s="3">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C395" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C396" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B397" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="C397" s="3">
-        <v>7</v>
-      </c>
-      <c r="D397" s="8" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="B398" t="s">
+        <v>262</v>
       </c>
       <c r="C398" s="3">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C399" s="3">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C400" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B401" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="C401" s="3">
-        <v>0</v>
-      </c>
-      <c r="D401" s="8" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="B402" t="s">
+        <v>263</v>
       </c>
       <c r="C402" s="3">
-        <v>0.85</v>
+        <v>0</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C403" s="3">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C404" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B405" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="C405" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="D405" s="8" t="s">
-        <v>404</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="B406" t="s">
+        <v>264</v>
       </c>
       <c r="C406" s="3">
-        <v>1E-3</v>
+        <v>-0.02</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C407" s="3">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C408" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B409" t="s">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="C409" s="3">
-        <v>0</v>
-      </c>
-      <c r="D409" s="8" t="s">
-        <v>249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="B410" t="s">
+        <v>265</v>
       </c>
       <c r="C410" s="3">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="D410" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C411" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C412" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B413" t="s">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="C413" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B414" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="C414" s="3">
-        <v>0.17</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B415" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="C415" s="3">
-        <v>1.4E-2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B416" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C416" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B417" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C417" s="3">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="B418" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="C418" s="3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="B419" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C419" s="3">
-        <v>0</v>
-      </c>
-      <c r="D419" s="8" t="s">
-        <v>228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B420" t="s">
+        <v>272</v>
       </c>
       <c r="C420" s="3">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D420" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C421" s="3">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C422" s="3">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C423" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C424" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C425" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C426" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B427" t="s">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="C427" s="3">
-        <v>4</v>
-      </c>
-      <c r="D427" s="8" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B428" t="s">
+        <v>273</v>
       </c>
       <c r="C428" s="3">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D428" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C429" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C430" s="3">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C431" s="3">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C432" s="3">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C433" s="3">
         <v>1</v>
@@ -8645,7 +8478,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C434" s="3">
         <v>1</v>
@@ -8653,91 +8486,91 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B435" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="C435" s="3">
-        <v>-50</v>
-      </c>
-      <c r="D435" s="8" t="s">
-        <v>403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B436" t="s">
+        <v>274</v>
       </c>
       <c r="C436" s="3">
-        <v>0</v>
+        <v>-50</v>
+      </c>
+      <c r="D436" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C437" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C438" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C439" s="3">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B440" t="s">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="C440" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D440" s="8" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B441" t="s">
+        <v>275</v>
       </c>
       <c r="C441" s="3">
         <v>0.4</v>
       </c>
+      <c r="D441" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C442" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C443" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C444" s="3">
         <v>1</v>
@@ -8745,374 +8578,374 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B445" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="C445" s="3">
-        <v>0</v>
-      </c>
-      <c r="D445" s="8" t="s">
-        <v>231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B446" t="s">
+        <v>276</v>
       </c>
       <c r="C446" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D446" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C447" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C448" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C449" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C450" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C451" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C452" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C453" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C454" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B455" t="s">
-        <v>322</v>
+        <v>182</v>
       </c>
       <c r="C455" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="D455" s="8" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B456" t="s">
+        <v>277</v>
       </c>
       <c r="C456" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>0.03</v>
+      </c>
+      <c r="D456" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C457" s="3">
-        <v>6.3E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C458" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C459" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C460" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C461" s="3">
-        <v>6.2E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C462" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C463" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C464" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B465" t="s">
-        <v>323</v>
+        <v>182</v>
       </c>
       <c r="C465" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="D465" s="8" t="s">
-        <v>233</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="B466" t="s">
+        <v>278</v>
       </c>
       <c r="C466" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>0.03</v>
+      </c>
+      <c r="D466" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C467" s="3">
-        <v>6.2E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C468" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C469" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C470" s="3">
-        <v>6.3E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C471" s="3">
-        <v>5.8999999999999997E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C472" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C473" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C474" s="3">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B475" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C475" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B476" t="s">
+        <v>141</v>
+      </c>
+      <c r="C476" s="3">
         <f xml:space="preserve"> -2.22</f>
         <v>-2.2200000000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B476" t="s">
-        <v>187</v>
-      </c>
-      <c r="C476" s="3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B477" t="s">
+        <v>142</v>
+      </c>
+      <c r="C477" s="3">
         <f xml:space="preserve"> -5</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B477" t="s">
-        <v>235</v>
-      </c>
-      <c r="C477" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B478" t="s">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="C478" s="3">
-        <v>10</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B479" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="C479" s="3">
-        <v>0.06</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B480" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="C480" s="3">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B481" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="C481" s="3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B482" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="C482" s="3">
-        <v>0</v>
-      </c>
-      <c r="D482" s="8" t="s">
-        <v>236</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
+      </c>
+      <c r="B483" t="s">
+        <v>283</v>
       </c>
       <c r="C483" s="3">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D483" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C484" s="3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C485" s="3">
         <v>0.6</v>
@@ -9120,37 +8953,37 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B486" t="s">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="C486" s="3">
-        <v>0</v>
-      </c>
-      <c r="D486" s="8" t="s">
-        <v>237</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
+      </c>
+      <c r="B487" t="s">
+        <v>284</v>
       </c>
       <c r="C487" s="3">
         <v>0</v>
+      </c>
+      <c r="D487" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C488" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C489" s="3">
         <v>0.12</v>
@@ -9158,152 +8991,160 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B490" t="s">
-        <v>330</v>
+        <v>163</v>
       </c>
       <c r="C490" s="3">
-        <v>3</v>
-      </c>
-      <c r="D490" s="8" t="s">
-        <v>238</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
+      </c>
+      <c r="B491" t="s">
+        <v>285</v>
       </c>
       <c r="C491" s="3">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D491" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C492" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C493" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B494" t="s">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="C494" s="3">
-        <v>0</v>
-      </c>
-      <c r="D494" s="8" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
+      </c>
+      <c r="B495" t="s">
+        <v>286</v>
       </c>
       <c r="C495" s="3">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D495" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C496" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C497" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B498" t="s">
-        <v>182</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="C498" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="5" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B499" t="s">
-        <v>234</v>
-      </c>
-      <c r="C499" s="3">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B500" t="s">
-        <v>332</v>
+        <v>189</v>
       </c>
       <c r="C500" s="3">
-        <v>0.39610000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="5" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B501" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="C501" s="3">
-        <v>-0.86499999999999999</v>
+        <v>0.39610000000000001</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B502" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="C502" s="3">
-        <v>1</v>
+        <v>-0.86499999999999999</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B503" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="C503" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B504" t="s">
+        <v>290</v>
+      </c>
+      <c r="C504" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C503"/>
+  <autoFilter ref="A1:C504" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <sortState ref="B116:C158">
     <sortCondition ref="B116:B158"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/R/CropModels/Soybean/SoybeanParams.xlsx
+++ b/R/CropModels/Soybean/SoybeanParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embrapa\2020\ECOSMOS\ECOSMOS\R\CropModels\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19930D3-C12C-45DC-A832-7B8B1C1CD0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8389E-5A88-423D-8CEC-3CD068D6A41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6075" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="380">
   <si>
     <t>MG</t>
   </si>
@@ -280,30 +280,18 @@
     <t>SDLIP</t>
   </si>
   <si>
-    <t>AR0001</t>
-  </si>
-  <si>
     <t>Don Mario MG4</t>
   </si>
   <si>
     <t xml:space="preserve">M GROUP   4  </t>
   </si>
   <si>
-    <t>AK0001</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRS5980   6  </t>
   </si>
   <si>
-    <t>BR0001</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISIDOR    2  </t>
   </si>
   <si>
-    <t>FR0001</t>
-  </si>
-  <si>
     <t>PARMAX</t>
   </si>
   <si>
@@ -1148,9 +1136,6 @@
   </si>
   <si>
     <t>parameter</t>
-  </si>
-  <si>
-    <t>equivalente ao 'soybean1' no padrão ECOSMOS atual</t>
   </si>
   <si>
     <t>FNPGN</t>
@@ -1192,12 +1177,24 @@
   <si>
     <t>SD</t>
   </si>
+  <si>
+    <t>soybean1</t>
+  </si>
+  <si>
+    <t>soybean2</t>
+  </si>
+  <si>
+    <t>soybean3</t>
+  </si>
+  <si>
+    <t>soybean4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,6 +1244,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1591,13 +1594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,10 +1613,10 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>62</v>
@@ -1673,13 +1676,13 @@
         <v>80</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>1</v>
@@ -1732,10 +1735,10 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -1873,10 +1876,10 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -2014,10 +2017,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>86</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2155,10 +2158,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2294,12 +2297,8 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -2339,13 +2338,13 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -4267,8 +4266,8 @@
   <dimension ref="A1:K504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K367" sqref="K367"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4280,21 +4279,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3">
         <v>40</v>
@@ -4302,10 +4301,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3">
         <v>61</v>
@@ -4313,10 +4312,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3">
         <v>0.67</v>
@@ -4324,10 +4323,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3">
         <v>0.1</v>
@@ -4335,10 +4334,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3">
         <v>79</v>
@@ -4346,10 +4345,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3">
         <v>2.08</v>
@@ -4357,10 +4356,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3">
         <v>1.06E-2</v>
@@ -4368,21 +4367,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C9" s="3">
         <v>1.9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3">
@@ -4391,7 +4390,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="3">
@@ -4400,7 +4399,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="3">
@@ -4409,32 +4408,32 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="3">
@@ -4443,7 +4442,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="3">
@@ -4452,7 +4451,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="3">
@@ -4461,32 +4460,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3">
@@ -4495,7 +4494,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="3">
@@ -4504,7 +4503,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3">
@@ -4513,7 +4512,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="3">
@@ -4522,7 +4521,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="3">
@@ -4531,21 +4530,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="3">
@@ -4554,7 +4553,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="3">
@@ -4563,7 +4562,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="3">
@@ -4572,7 +4571,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="3">
@@ -4581,7 +4580,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="3">
@@ -4590,21 +4589,21 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="3">
@@ -4613,7 +4612,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="3">
@@ -4622,7 +4621,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="3">
@@ -4631,21 +4630,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3">
         <v>541</v>
@@ -4653,10 +4652,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3">
         <v>0.2</v>
@@ -4664,10 +4663,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C38" s="3">
         <v>0.8</v>
@@ -4675,10 +4674,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -4686,10 +4685,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3">
         <v>3.5999999999999999E-3</v>
@@ -4697,10 +4696,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C41" s="3">
         <v>4.0000000000000002E-4</v>
@@ -4708,10 +4707,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C42" s="3">
         <v>0.3</v>
@@ -4719,10 +4718,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3">
         <v>4.9000000000000004</v>
@@ -4730,10 +4729,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3">
         <v>1.03</v>
@@ -4741,21 +4740,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3">
         <v>1E-3</v>
@@ -4763,7 +4762,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C47" s="3">
         <v>2E-3</v>
@@ -4771,7 +4770,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C48" s="3">
         <v>3.0000000000000001E-3</v>
@@ -4779,7 +4778,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C49" s="3">
         <v>3.5000000000000001E-3</v>
@@ -4787,7 +4786,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C50" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4795,7 +4794,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C51" s="3">
         <v>5.0000000000000001E-3</v>
@@ -4803,7 +4802,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C52" s="3">
         <v>6.0000000000000001E-3</v>
@@ -4811,7 +4810,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C53" s="3">
         <v>8.0000000000000002E-3</v>
@@ -4819,10 +4818,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C54" s="3">
         <v>0.01</v>
@@ -4830,18 +4829,18 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C55" s="3">
         <v>0.16200000000000001</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3">
         <v>0.67900000000000005</v>
@@ -4849,7 +4848,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C57" s="3">
         <v>0.86699999999999999</v>
@@ -4857,7 +4856,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C58" s="3">
         <v>0.96599999999999997</v>
@@ -4865,7 +4864,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -4873,7 +4872,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C60" s="3">
         <v>1.0269999999999999</v>
@@ -4881,7 +4880,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C61" s="3">
         <v>1.069</v>
@@ -4889,7 +4888,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C62" s="3">
         <v>1.1000000000000001</v>
@@ -4897,7 +4896,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C63" s="3">
         <v>1.141</v>
@@ -4905,7 +4904,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C64" s="3">
         <v>1.167</v>
@@ -4913,10 +4912,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3">
         <v>1.1000000000000001</v>
@@ -4924,10 +4923,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C66" s="3">
         <v>0.68</v>
@@ -4935,10 +4934,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C67" s="3">
         <v>3.5E-4</v>
@@ -4946,10 +4945,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C68" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4957,10 +4956,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C69" s="3">
         <v>2.556</v>
@@ -4968,10 +4967,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
         <v>118</v>
-      </c>
-      <c r="B70" t="s">
-        <v>122</v>
       </c>
       <c r="C70" s="3">
         <v>2.556</v>
@@ -4979,10 +4978,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C71" s="3">
         <v>0.36</v>
@@ -4990,10 +4989,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C72" s="3">
         <v>2.83</v>
@@ -5001,10 +5000,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C73" s="3">
         <v>1.242</v>
@@ -5012,10 +5011,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="3">
         <v>3.1059999999999999</v>
@@ -5023,10 +5022,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C75" s="3">
         <v>2.1739999999999999</v>
@@ -5034,10 +5033,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C76" s="3">
         <v>0.92900000000000005</v>
@@ -5045,10 +5044,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C77" s="3">
         <v>0.05</v>
@@ -5056,10 +5055,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C78" s="3">
         <v>1.1299999999999999</v>
@@ -5067,10 +5066,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C79" s="3">
         <v>0.28499999999999998</v>
@@ -5078,10 +5077,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C80" s="3">
         <v>6.4000000000000001E-2</v>
@@ -5089,10 +5088,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C81" s="3">
         <v>0.1</v>
@@ -5100,21 +5099,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B82" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C82" s="3">
         <v>7</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C83" s="3">
         <v>6</v>
@@ -5122,15 +5121,15 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C84" s="3">
-        <v>15</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
@@ -5138,7 +5137,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
@@ -5146,21 +5145,21 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C87" s="3">
         <v>28</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C88" s="3">
         <v>26</v>
@@ -5168,7 +5167,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C89" s="3">
         <v>26</v>
@@ -5176,7 +5175,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
@@ -5184,7 +5183,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
@@ -5192,21 +5191,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C92" s="3">
         <v>35</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C93" s="3">
         <v>30</v>
@@ -5214,7 +5213,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C94" s="3">
         <v>34</v>
@@ -5222,7 +5221,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -5230,7 +5229,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -5238,21 +5237,21 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C97" s="3">
         <v>45</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C98" s="3">
         <v>45</v>
@@ -5260,7 +5259,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C99" s="3">
         <v>45</v>
@@ -5268,7 +5267,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
@@ -5276,7 +5275,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
@@ -5284,21 +5283,21 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C103" s="3">
         <v>2</v>
@@ -5306,7 +5305,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
@@ -5314,7 +5313,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C105" s="3">
         <v>4</v>
@@ -5322,7 +5321,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C106" s="3">
         <v>5</v>
@@ -5330,7 +5329,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C107" s="3">
         <v>6</v>
@@ -5338,7 +5337,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C108" s="3">
         <v>6</v>
@@ -5346,7 +5345,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C109" s="3">
         <v>6</v>
@@ -5354,7 +5353,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C110" s="3">
         <v>9</v>
@@ -5362,7 +5361,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C111" s="3">
         <v>9</v>
@@ -5370,7 +5369,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C112" s="3">
         <v>11</v>
@@ -5378,7 +5377,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C113" s="3">
         <v>6</v>
@@ -5386,7 +5385,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C114" s="3">
         <v>6</v>
@@ -5394,241 +5393,241 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B115" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B128" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B141" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -5636,7 +5635,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -5644,7 +5643,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C144" s="3">
         <v>2</v>
@@ -5652,7 +5651,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C145" s="3">
         <v>2</v>
@@ -5660,7 +5659,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C146" s="3">
         <v>2</v>
@@ -5668,7 +5667,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C147" s="3">
         <v>2</v>
@@ -5676,7 +5675,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C148" s="3">
         <v>2</v>
@@ -5684,7 +5683,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C149" s="3">
         <v>3</v>
@@ -5692,7 +5691,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C150" s="3">
         <v>3</v>
@@ -5700,7 +5699,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
@@ -5708,7 +5707,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C152" s="3">
         <v>2</v>
@@ -5716,7 +5715,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C153" s="3">
         <v>2</v>
@@ -5724,21 +5723,21 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B154" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C154" s="3">
         <v>-0.2</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C155" s="3">
         <v>-0.2</v>
@@ -5746,7 +5745,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C156" s="3">
         <v>-0.4</v>
@@ -5754,7 +5753,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C157" s="3">
         <v>-0.4</v>
@@ -5762,7 +5761,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C158" s="3">
         <v>-0.4</v>
@@ -5770,7 +5769,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C159" s="3">
         <v>-0.4</v>
@@ -5778,7 +5777,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C160" s="3">
         <v>-0.4</v>
@@ -5786,7 +5785,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C161" s="3">
         <v>-0.4</v>
@@ -5794,7 +5793,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C162" s="3">
         <v>0.7</v>
@@ -5802,7 +5801,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C163" s="3">
         <v>0.7</v>
@@ -5810,7 +5809,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C164" s="3">
         <v>0</v>
@@ -5818,7 +5817,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C165" s="3">
         <v>-0.6</v>
@@ -5826,7 +5825,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C166" s="3">
         <v>-0.9</v>
@@ -5834,21 +5833,21 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C167" s="3">
         <v>0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C168" s="3">
         <v>0</v>
@@ -5856,7 +5855,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C169" s="3">
         <v>0</v>
@@ -5864,7 +5863,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C170" s="3">
         <v>0</v>
@@ -5872,7 +5871,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C171" s="3">
         <v>0</v>
@@ -5880,7 +5879,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
@@ -5888,7 +5887,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C173" s="3">
         <v>0</v>
@@ -5896,7 +5895,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
@@ -5904,7 +5903,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C175" s="3">
         <v>0.4</v>
@@ -5912,7 +5911,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C176" s="3">
         <v>0.4</v>
@@ -5920,7 +5919,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
@@ -5928,7 +5927,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C178" s="3">
         <v>0</v>
@@ -5936,7 +5935,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C179" s="3">
         <v>0</v>
@@ -5944,21 +5943,21 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B180" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C180" s="3">
         <v>0</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C181" s="3">
         <v>0</v>
@@ -5966,7 +5965,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
@@ -5974,7 +5973,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C183" s="3">
         <v>0</v>
@@ -5982,7 +5981,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C184" s="3">
         <v>0</v>
@@ -5990,7 +5989,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C185" s="3">
         <v>0</v>
@@ -5998,7 +5997,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
@@ -6006,7 +6005,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
@@ -6014,7 +6013,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C188" s="3">
         <v>0</v>
@@ -6022,7 +6021,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C189" s="3">
         <v>0</v>
@@ -6030,7 +6029,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C190" s="3">
         <v>0</v>
@@ -6038,7 +6037,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C191" s="3">
         <v>0</v>
@@ -6046,7 +6045,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C192" s="3">
         <v>0</v>
@@ -6054,10 +6053,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
@@ -6065,10 +6064,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C194" s="3">
         <v>0</v>
@@ -6076,10 +6075,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B195" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C195" s="3">
         <v>180</v>
@@ -6087,10 +6086,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B196" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C196" s="3">
         <v>350</v>
@@ -6098,10 +6097,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C197" s="3">
         <v>171.4</v>
@@ -6109,10 +6108,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C198" s="3">
         <v>5</v>
@@ -6120,10 +6119,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C199" s="3">
         <v>950</v>
@@ -6131,10 +6130,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C200" s="3">
         <v>250</v>
@@ -6142,10 +6141,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C201" s="3">
         <v>-4.8000000000000001E-2</v>
@@ -6153,10 +6152,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C202" s="3">
         <v>1.5</v>
@@ -6164,21 +6163,21 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B203" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C203" s="3">
         <v>0</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
@@ -6186,7 +6185,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C205" s="3">
         <v>2</v>
@@ -6194,7 +6193,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C206" s="3">
         <v>3</v>
@@ -6202,7 +6201,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C207" s="3">
         <v>4</v>
@@ -6210,7 +6209,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C208" s="3">
         <v>5</v>
@@ -6218,21 +6217,21 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B209" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C209" s="3">
         <v>0</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C210" s="3">
         <v>20</v>
@@ -6240,7 +6239,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C211" s="3">
         <v>55</v>
@@ -6248,7 +6247,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C212" s="3">
         <v>110</v>
@@ -6256,7 +6255,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C213" s="3">
         <v>200</v>
@@ -6264,7 +6263,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C214" s="3">
         <v>320</v>
@@ -6272,21 +6271,21 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C215" s="3">
         <v>-50</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C216" s="3">
         <v>0</v>
@@ -6294,7 +6293,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C217" s="3">
         <v>12</v>
@@ -6302,7 +6301,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C218" s="3">
         <v>22</v>
@@ -6310,7 +6309,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C219" s="3">
         <v>60</v>
@@ -6318,21 +6317,21 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C220" s="3">
         <v>0.25</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C221" s="3">
         <v>0.25</v>
@@ -6340,7 +6339,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C222" s="3">
         <v>0.25</v>
@@ -6348,7 +6347,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C223" s="3">
         <v>1</v>
@@ -6356,7 +6355,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -6364,10 +6363,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B225" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C225" s="3">
         <v>0.05</v>
@@ -6375,10 +6374,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C226" s="3">
         <v>0.24</v>
@@ -6386,10 +6385,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C227" s="3">
         <v>0.55000000000000004</v>
@@ -6397,10 +6396,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C228" s="3">
         <v>0.7</v>
@@ -6408,21 +6407,21 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C229" s="3">
         <v>0</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C230" s="3">
         <v>1.5</v>
@@ -6430,7 +6429,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C231" s="3">
         <v>3.3</v>
@@ -6438,7 +6437,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C232" s="3">
         <v>5</v>
@@ -6446,7 +6445,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C233" s="3">
         <v>7.8</v>
@@ -6454,7 +6453,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C234" s="3">
         <v>10.5</v>
@@ -6462,7 +6461,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C235" s="3">
         <v>30</v>
@@ -6470,7 +6469,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C236" s="3">
         <v>40</v>
@@ -6478,21 +6477,21 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B237" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C237" s="3">
         <v>0.41</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C238" s="3">
         <v>0.42</v>
@@ -6500,7 +6499,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C239" s="3">
         <v>0.42</v>
@@ -6508,7 +6507,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C240" s="3">
         <v>0.41</v>
@@ -6516,7 +6515,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C241" s="3">
         <v>0.36</v>
@@ -6524,7 +6523,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C242" s="3">
         <v>0.32</v>
@@ -6532,7 +6531,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C243" s="3">
         <v>0.31</v>
@@ -6540,7 +6539,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C244" s="3">
         <v>0.31</v>
@@ -6548,21 +6547,21 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B245" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C245" s="3">
         <v>0.09</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C246" s="3">
         <v>0.13</v>
@@ -6570,7 +6569,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C247" s="3">
         <v>0.21</v>
@@ -6578,7 +6577,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C248" s="3">
         <v>0.28999999999999998</v>
@@ -6586,7 +6585,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C249" s="3">
         <v>0.37</v>
@@ -6594,7 +6593,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C250" s="3">
         <v>0.49</v>
@@ -6602,7 +6601,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C251" s="3">
         <v>0.49</v>
@@ -6610,7 +6609,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C252" s="3">
         <v>0.49</v>
@@ -6618,10 +6617,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B253" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C253" s="3">
         <v>0.57999999999999996</v>
@@ -6629,10 +6628,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B254" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C254" s="3">
         <v>0.55000000000000004</v>
@@ -6640,10 +6639,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B255" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C255" s="3">
         <v>0.40500000000000003</v>
@@ -6651,10 +6650,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B256" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C256" s="3">
         <v>0.48</v>
@@ -6662,10 +6661,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B257" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C257" s="3">
         <v>0.71099999999999997</v>
@@ -6673,10 +6672,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B258" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C258" s="3">
         <v>0.315</v>
@@ -6684,10 +6683,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B259" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C259" s="3">
         <v>0.38</v>
@@ -6695,10 +6694,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B260" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C260" s="3">
         <v>0.66400000000000003</v>
@@ -6706,10 +6705,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B261" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C261" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6717,10 +6716,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B262" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C262" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6728,10 +6727,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B263" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C263" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6739,10 +6738,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B264" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C264" s="3">
         <v>0.02</v>
@@ -6750,10 +6749,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B265" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C265" s="3">
         <v>0.28000000000000003</v>
@@ -6761,10 +6760,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B266" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C266" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6772,10 +6771,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B267" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C267" s="3">
         <v>2.5000000000000001E-2</v>
@@ -6783,10 +6782,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B268" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C268" s="3">
         <v>0.05</v>
@@ -6794,10 +6793,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B269" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C269" s="3">
         <v>0.02</v>
@@ -6805,10 +6804,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B270" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C270" s="3">
         <v>0.02</v>
@@ -6816,10 +6815,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B271" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C271" s="3">
         <v>0.02</v>
@@ -6827,10 +6826,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B272" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C272" s="3">
         <v>9.4E-2</v>
@@ -6838,10 +6837,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B273" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C273" s="3">
         <v>0.05</v>
@@ -6849,10 +6848,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B274" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C274" s="3">
         <v>5.7000000000000002E-2</v>
@@ -6860,10 +6859,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B275" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C275" s="3">
         <v>2.5000000000000001E-2</v>
@@ -6871,10 +6870,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B276" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C276" s="3">
         <v>0.03</v>
@@ -6882,10 +6881,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B277" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C277" s="3">
         <v>4.5999999999999999E-2</v>
@@ -6893,10 +6892,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B278" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C278" s="3">
         <v>0.05</v>
@@ -6904,10 +6903,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B279" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C279" s="3">
         <v>0.05</v>
@@ -6915,10 +6914,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B280" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C280" s="3">
         <v>0.05</v>
@@ -6926,10 +6925,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B281" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C281" s="3">
         <v>0.04</v>
@@ -6937,10 +6936,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B282" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C282" s="3">
         <v>0.04</v>
@@ -6948,10 +6947,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B283" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C283" s="3">
         <v>0.04</v>
@@ -6959,10 +6958,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B284" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C284" s="3">
         <v>0.05</v>
@@ -6970,10 +6969,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B285" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C285" s="3">
         <v>0.112</v>
@@ -6981,10 +6980,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B286" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C286" s="3">
         <v>0.35599999999999998</v>
@@ -6992,10 +6991,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B287" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C287" s="3">
         <v>0.08</v>
@@ -7003,10 +7002,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B288" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C288" s="3">
         <v>0.03</v>
@@ -7014,10 +7013,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B289" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C289" s="3">
         <v>0.3</v>
@@ -7025,10 +7024,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B290" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C290" s="3">
         <v>5.6000000000000001E-2</v>
@@ -7036,10 +7035,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B291" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C291" s="3">
         <v>9.1999999999999998E-2</v>
@@ -7047,10 +7046,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B292" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C292" s="3">
         <v>0.05</v>
@@ -7058,10 +7057,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B293" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C293" s="3">
         <v>0.25</v>
@@ -7069,10 +7068,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B294" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C294" s="3">
         <v>3.5000000000000003E-2</v>
@@ -7080,10 +7079,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B295" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C295" s="3">
         <v>0.15</v>
@@ -7091,10 +7090,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B296" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C296" s="3">
         <v>0.4</v>
@@ -7102,10 +7101,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B297" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C297" s="3">
         <v>0.8</v>
@@ -7113,10 +7112,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B298" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C298" s="3">
         <v>0.18</v>
@@ -7124,10 +7123,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B299" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C299" s="3">
         <v>23.65</v>
@@ -7135,10 +7134,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B300" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C300" s="3">
         <v>7.16</v>
@@ -7146,10 +7145,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B301" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C301" s="7">
         <v>9.0800002200000004E-3</v>
@@ -7157,21 +7156,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C302" s="12">
         <v>6</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C303" s="3">
         <v>21</v>
@@ -7179,7 +7178,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C304" s="3">
         <v>23.5</v>
@@ -7187,7 +7186,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C305" s="3">
         <v>41</v>
@@ -7195,10 +7194,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C306" s="12" t="str">
         <f xml:space="preserve"> "QDR"</f>
@@ -7207,21 +7206,21 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B307" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C307" s="3">
         <v>14</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C308" s="3">
         <v>21</v>
@@ -7229,7 +7228,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C309" s="3">
         <v>26.5</v>
@@ -7237,7 +7236,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C310" s="3">
         <v>40</v>
@@ -7245,10 +7244,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B311" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C311" s="3" t="str">
         <f xml:space="preserve"> "QDR"</f>
@@ -7257,10 +7256,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B312" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C312" s="3">
         <v>0</v>
@@ -7268,10 +7267,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B313" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C313" s="3">
         <v>0.3</v>
@@ -7279,10 +7278,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B314" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C314" s="3">
         <v>0</v>
@@ -7290,21 +7289,21 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B315" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C315" s="3">
         <v>0</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C316" s="3">
         <v>5</v>
@@ -7313,7 +7312,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C317" s="3">
         <v>20</v>
@@ -7322,7 +7321,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C318" s="3">
         <v>35</v>
@@ -7331,7 +7330,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C319" s="3">
         <v>45</v>
@@ -7340,7 +7339,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C320" s="3">
         <v>60</v>
@@ -7349,21 +7348,21 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B321" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C321" s="3">
         <v>1</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C322" s="3">
         <v>1</v>
@@ -7372,7 +7371,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C323" s="3">
         <v>1</v>
@@ -7381,7 +7380,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C324" s="3">
         <v>1</v>
@@ -7390,7 +7389,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C325" s="3">
         <v>0</v>
@@ -7399,7 +7398,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C326" s="3">
         <v>0</v>
@@ -7408,21 +7407,21 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B327" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C327" s="3">
         <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C328" s="3">
         <v>0.5</v>
@@ -7431,7 +7430,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C329" s="3">
         <v>0.75</v>
@@ -7440,7 +7439,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
@@ -7449,21 +7448,21 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B331" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C331" s="3">
         <v>0</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C332" s="3">
         <v>0</v>
@@ -7472,7 +7471,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C333" s="3">
         <v>0</v>
@@ -7481,7 +7480,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C334" s="3">
         <v>0</v>
@@ -7490,10 +7489,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B335" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C335" s="3">
         <v>15</v>
@@ -7501,10 +7500,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B336" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C336" s="3">
         <v>0.6</v>
@@ -7512,10 +7511,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B337" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C337" s="3">
         <v>0</v>
@@ -7523,10 +7522,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B338" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C338" s="3">
         <v>100</v>
@@ -7534,21 +7533,21 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B339" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C339" s="3">
         <v>0</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C340" s="3">
         <v>0.01</v>
@@ -7556,7 +7555,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C341" s="3">
         <v>0.25</v>
@@ -7564,7 +7563,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C342" s="3">
         <v>1</v>
@@ -7572,7 +7571,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C343" s="3">
         <v>1</v>
@@ -7580,21 +7579,21 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B344" t="s">
+        <v>248</v>
+      </c>
+      <c r="C344" s="3">
+        <v>1</v>
+      </c>
+      <c r="D344" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B344" t="s">
-        <v>252</v>
-      </c>
-      <c r="C344" s="3">
-        <v>1</v>
-      </c>
-      <c r="D344" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C345" s="3">
         <v>1</v>
@@ -7602,7 +7601,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C346" s="3">
         <v>1</v>
@@ -7610,7 +7609,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C347" s="3">
         <v>1</v>
@@ -7618,7 +7617,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C348" s="3">
         <v>1</v>
@@ -7626,21 +7625,21 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B349" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C349" s="3">
         <v>0</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C350" s="3">
         <v>0.5</v>
@@ -7648,7 +7647,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C351" s="3">
         <v>1</v>
@@ -7656,7 +7655,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C352" s="3">
         <v>1</v>
@@ -7664,21 +7663,21 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B353" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C353" s="3">
         <v>0</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C354" s="3">
         <v>1</v>
@@ -7686,7 +7685,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C355" s="3">
         <v>1</v>
@@ -7694,7 +7693,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C356" s="3">
         <v>1</v>
@@ -7702,10 +7701,10 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B357" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C357" s="3">
         <v>0.04</v>
@@ -7713,10 +7712,10 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B358" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C358" s="3">
         <v>0.08</v>
@@ -7724,10 +7723,10 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B359" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C359" s="3">
         <v>0.04</v>
@@ -7735,10 +7734,10 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B360" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C360" s="3">
         <v>0.08</v>
@@ -7746,10 +7745,10 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B361" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C361" s="3">
         <v>0.26</v>
@@ -7757,10 +7756,10 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B362" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C362" s="3">
         <v>0.75</v>
@@ -7768,10 +7767,10 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B363" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C363" s="3">
         <v>2.4E-2</v>
@@ -7779,10 +7778,10 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B364" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C364" s="3">
         <v>0.09</v>
@@ -7790,10 +7789,10 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B365" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C365" s="3">
         <v>0.15</v>
@@ -7801,10 +7800,10 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B366" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C366" s="3">
         <v>0.35</v>
@@ -7812,22 +7811,22 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B367" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K367" s="15"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B368" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C368" s="3">
         <v>0.02</v>
@@ -7835,10 +7834,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B369" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C369" s="3">
         <v>7500</v>
@@ -7846,10 +7845,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B370" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C370" s="3">
         <v>0.1</v>
@@ -7857,10 +7856,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B371" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C371" s="3">
         <v>1.4999999999999999E-2</v>
@@ -7868,10 +7867,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B372" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C372" s="3">
         <v>0.02</v>
@@ -7879,10 +7878,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B373" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C373" s="3">
         <v>20</v>
@@ -7890,10 +7889,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B374" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C374" s="3">
         <v>0.1</v>
@@ -7901,10 +7900,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B375" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C375" s="3">
         <v>0</v>
@@ -7912,21 +7911,21 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B376" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C376" s="3">
         <v>0</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C377" s="3">
         <v>3</v>
@@ -7934,7 +7933,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C378" s="3">
         <v>6</v>
@@ -7942,7 +7941,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C379" s="3">
         <v>30</v>
@@ -7950,21 +7949,21 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B380" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C380" s="3">
         <v>2.5</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C381" s="3">
         <v>2.5</v>
@@ -7972,7 +7971,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C382" s="3">
         <v>2.6</v>
@@ -7980,7 +7979,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C383" s="3">
         <v>2.6</v>
@@ -7988,10 +7987,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B384" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C384" s="3">
         <v>1.5</v>
@@ -7999,10 +7998,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B385" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C385" s="3">
         <v>0.04</v>
@@ -8010,10 +8009,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B386" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C386" s="3">
         <v>6.0000000000000001E-3</v>
@@ -8021,10 +8020,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B387" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C387" s="3">
         <v>6.0000000000000001E-3</v>
@@ -8032,10 +8031,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B388" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C388" s="3">
         <v>0</v>
@@ -8043,76 +8042,76 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B389" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B390" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B391" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B392" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B393" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B394" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C394" s="3">
         <v>5</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C395" s="3">
         <v>20</v>
@@ -8120,7 +8119,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C396" s="3">
         <v>35</v>
@@ -8128,7 +8127,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C397" s="3">
         <v>44</v>
@@ -8136,21 +8135,21 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B398" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C398" s="3">
         <v>7</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C399" s="3">
         <v>22</v>
@@ -8158,7 +8157,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C400" s="3">
         <v>35</v>
@@ -8166,7 +8165,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C401" s="3">
         <v>44</v>
@@ -8174,21 +8173,21 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B402" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C402" s="3">
         <v>0</v>
       </c>
       <c r="D402" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C403" s="3">
         <v>0.85</v>
@@ -8196,7 +8195,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C404" s="3">
         <v>1</v>
@@ -8204,7 +8203,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C405" s="3">
         <v>10</v>
@@ -8212,21 +8211,21 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B406" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C406" s="3">
         <v>-0.02</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C407" s="3">
         <v>1E-3</v>
@@ -8234,7 +8233,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C408" s="3">
         <v>1</v>
@@ -8242,7 +8241,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C409" s="3">
         <v>2</v>
@@ -8250,21 +8249,21 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B410" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C410" s="3">
         <v>0</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C411" s="3">
         <v>10</v>
@@ -8272,7 +8271,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C412" s="3">
         <v>1</v>
@@ -8280,7 +8279,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C413" s="3">
         <v>0</v>
@@ -8288,10 +8287,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B414" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C414" s="3">
         <v>7.0000000000000007E-2</v>
@@ -8299,10 +8298,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B415" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C415" s="3">
         <v>0.17</v>
@@ -8310,10 +8309,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B416" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C416" s="3">
         <v>1.4E-2</v>
@@ -8321,10 +8320,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B417" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C417" s="3">
         <v>4.4999999999999998E-2</v>
@@ -8332,10 +8331,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B418" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C418" s="3">
         <v>0.05</v>
@@ -8343,10 +8342,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B419" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C419" s="3">
         <v>1</v>
@@ -8354,21 +8353,21 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B420" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C420" s="3">
         <v>0</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C421" s="3">
         <v>5</v>
@@ -8376,7 +8375,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C422" s="3">
         <v>7.5</v>
@@ -8384,7 +8383,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C423" s="3">
         <v>10</v>
@@ -8392,7 +8391,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C424" s="3">
         <v>15</v>
@@ -8400,7 +8399,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C425" s="3">
         <v>20</v>
@@ -8408,7 +8407,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C426" s="3">
         <v>30</v>
@@ -8416,7 +8415,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C427" s="3">
         <v>80</v>
@@ -8424,21 +8423,21 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B428" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C428" s="3">
         <v>4</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C429" s="3">
         <v>2</v>
@@ -8446,7 +8445,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C430" s="3">
         <v>1.5</v>
@@ -8454,7 +8453,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C431" s="3">
         <v>1.25</v>
@@ -8462,7 +8461,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C432" s="3">
         <v>1.05</v>
@@ -8470,7 +8469,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C433" s="3">
         <v>1</v>
@@ -8478,7 +8477,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C434" s="3">
         <v>1</v>
@@ -8486,7 +8485,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C435" s="3">
         <v>1</v>
@@ -8494,21 +8493,21 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B436" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C436" s="3">
         <v>-50</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C437" s="3">
         <v>0</v>
@@ -8516,7 +8515,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C438" s="3">
         <v>15</v>
@@ -8524,7 +8523,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C439" s="3">
         <v>26</v>
@@ -8532,7 +8531,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C440" s="3">
         <v>60</v>
@@ -8540,21 +8539,21 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B441" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C441" s="3">
         <v>0.4</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C442" s="3">
         <v>0.4</v>
@@ -8562,7 +8561,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C443" s="3">
         <v>0.5</v>
@@ -8570,7 +8569,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C444" s="3">
         <v>1</v>
@@ -8578,7 +8577,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C445" s="3">
         <v>1</v>
@@ -8586,21 +8585,21 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B446" t="s">
+        <v>272</v>
+      </c>
+      <c r="C446" s="3">
+        <v>0</v>
+      </c>
+      <c r="D446" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="B446" t="s">
-        <v>276</v>
-      </c>
-      <c r="C446" s="3">
-        <v>0</v>
-      </c>
-      <c r="D446" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C447" s="3">
         <v>1</v>
@@ -8608,7 +8607,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C448" s="3">
         <v>4</v>
@@ -8616,7 +8615,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C449" s="3">
         <v>6</v>
@@ -8624,7 +8623,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C450" s="3">
         <v>8</v>
@@ -8632,7 +8631,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C451" s="3">
         <v>10</v>
@@ -8640,7 +8639,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C452" s="3">
         <v>14</v>
@@ -8648,7 +8647,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C453" s="3">
         <v>16</v>
@@ -8656,7 +8655,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C454" s="3">
         <v>20</v>
@@ -8664,7 +8663,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C455" s="3">
         <v>40</v>
@@ -8672,21 +8671,21 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B456" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C456" s="3">
         <v>0.03</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C457" s="3">
         <v>5.2999999999999999E-2</v>
@@ -8694,7 +8693,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C458" s="3">
         <v>6.3E-2</v>
@@ -8702,7 +8701,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C459" s="3">
         <v>6.6000000000000003E-2</v>
@@ -8710,7 +8709,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C460" s="3">
         <v>6.9000000000000006E-2</v>
@@ -8718,7 +8717,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C461" s="3">
         <v>6.6000000000000003E-2</v>
@@ -8726,7 +8725,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C462" s="3">
         <v>6.2E-2</v>
@@ -8734,7 +8733,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C463" s="3">
         <v>5.0999999999999997E-2</v>
@@ -8742,7 +8741,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C464" s="3">
         <v>3.4000000000000002E-2</v>
@@ -8750,7 +8749,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C465" s="3">
         <v>6.0000000000000001E-3</v>
@@ -8758,21 +8757,21 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B466" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C466" s="3">
         <v>0.03</v>
       </c>
       <c r="D466" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C467" s="3">
         <v>5.0999999999999997E-2</v>
@@ -8780,7 +8779,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C468" s="3">
         <v>6.2E-2</v>
@@ -8788,7 +8787,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C469" s="3">
         <v>6.4000000000000001E-2</v>
@@ -8796,7 +8795,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C470" s="3">
         <v>6.6000000000000003E-2</v>
@@ -8804,7 +8803,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C471" s="3">
         <v>6.3E-2</v>
@@ -8812,7 +8811,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C472" s="3">
         <v>5.8999999999999997E-2</v>
@@ -8820,7 +8819,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C473" s="3">
         <v>4.5999999999999999E-2</v>
@@ -8828,7 +8827,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C474" s="3">
         <v>2.5000000000000001E-2</v>
@@ -8836,7 +8835,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C475" s="3">
         <v>1E-3</v>
@@ -8844,10 +8843,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B476" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C476" s="3">
         <f xml:space="preserve"> -2.22</f>
@@ -8856,10 +8855,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B477" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C477" s="3">
         <f xml:space="preserve"> -5</f>
@@ -8868,10 +8867,10 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B478" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C478" s="3">
         <v>0.8</v>
@@ -8879,10 +8878,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B479" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C479" s="3">
         <v>10</v>
@@ -8890,10 +8889,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B480" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C480" s="3">
         <v>0.06</v>
@@ -8901,10 +8900,10 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B481" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C481" s="3">
         <v>0.2</v>
@@ -8912,10 +8911,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B482" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C482" s="3">
         <v>0.8</v>
@@ -8923,21 +8922,21 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B483" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C483" s="3">
         <v>0</v>
       </c>
       <c r="D483" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C484" s="3">
         <v>0.2</v>
@@ -8945,7 +8944,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C485" s="3">
         <v>0.6</v>
@@ -8953,7 +8952,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C486" s="3">
         <v>0.6</v>
@@ -8961,21 +8960,21 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B487" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C487" s="3">
         <v>0</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C488" s="3">
         <v>0</v>
@@ -8983,7 +8982,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C489" s="3">
         <v>0.12</v>
@@ -8991,7 +8990,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C490" s="3">
         <v>0.12</v>
@@ -8999,21 +8998,21 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B491" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C491" s="3">
         <v>3</v>
       </c>
       <c r="D491" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C492" s="3">
         <v>5</v>
@@ -9021,7 +9020,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C493" s="3">
         <v>10</v>
@@ -9029,7 +9028,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C494" s="3">
         <v>30</v>
@@ -9037,21 +9036,21 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B495" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C495" s="3">
         <v>0</v>
       </c>
       <c r="D495" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C496" s="3">
         <v>5</v>
@@ -9059,7 +9058,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C497" s="3">
         <v>14</v>
@@ -9067,7 +9066,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C498" s="3">
         <v>30</v>
@@ -9075,21 +9074,21 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B499" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B500" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C500" s="3">
         <v>6</v>
@@ -9097,10 +9096,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B501" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C501" s="3">
         <v>0.39610000000000001</v>
@@ -9108,10 +9107,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B502" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C502" s="3">
         <v>-0.86499999999999999</v>
@@ -9119,10 +9118,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B503" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C503" s="3">
         <v>1</v>
@@ -9130,10 +9129,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B504" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C504" s="3">
         <v>0</v>

--- a/R/CropModels/Soybean/SoybeanParams.xlsx
+++ b/R/CropModels/Soybean/SoybeanParams.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embrapa\2020\ECOSMOS\ECOSMOS\R\CropModels\Soybean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novo\Desktop\NIPE-UNICAMP\ECOSMOS_development\ECOSMOS\R\CropModels\Soybean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8389E-5A88-423D-8CEC-3CD068D6A41F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6075" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6072" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="SBGRO047.CUL" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SBGRO047.SPE!$A$1:$C$504</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="392">
   <si>
     <t>MG</t>
   </si>
@@ -278,18 +277,6 @@
   </si>
   <si>
     <t>SDLIP</t>
-  </si>
-  <si>
-    <t>Don Mario MG4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M GROUP   4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRS5980   6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISIDOR    2  </t>
   </si>
   <si>
     <t>PARMAX</t>
@@ -1189,11 +1176,59 @@
   <si>
     <t>soybean4</t>
   </si>
+  <si>
+    <t>IW0001 P92Y75R 3</t>
+  </si>
+  <si>
+    <t>NE0001 Asgr2703 3</t>
+  </si>
+  <si>
+    <t>NE0002 Pn93B09 3</t>
+  </si>
+  <si>
+    <t>NE0003 Pn93M11 3</t>
+  </si>
+  <si>
+    <t>NE0004 Pn92Y83 3</t>
+  </si>
+  <si>
+    <t>NE0005 Pn93M43 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR0001 ISIDOR    2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR0001 BRS5980   6  </t>
+  </si>
+  <si>
+    <t>AR0001 Don Mario MG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK0001 M GROUP   4  </t>
+  </si>
+  <si>
+    <t>soybean5</t>
+  </si>
+  <si>
+    <t>soybean6</t>
+  </si>
+  <si>
+    <t>soybean7</t>
+  </si>
+  <si>
+    <t>soybean8</t>
+  </si>
+  <si>
+    <t>soybean9</t>
+  </si>
+  <si>
+    <t>soybean10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1281,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1312,8 +1347,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1593,19 +1636,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2:AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="16"/>
     <col min="4" max="21" width="8.88671875" style="3"/>
     <col min="22" max="22" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="40" width="8.88671875" style="3"/>
@@ -1613,12 +1658,12 @@
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -1676,13 +1721,13 @@
         <v>80</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>1</v>
@@ -1734,76 +1779,76 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>379</v>
+      <c r="A2" s="9" t="s">
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
+        <v>383</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="3">
-        <v>13</v>
+        <v>12.58</v>
       </c>
       <c r="E2" s="3">
-        <v>0.29399999999999998</v>
+        <v>0.311</v>
       </c>
       <c r="F2" s="3">
-        <v>14.8</v>
+        <v>23.1</v>
       </c>
       <c r="G2" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3">
-        <v>41.5</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="L2" s="3">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="M2" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
       </c>
       <c r="O2" s="3">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="P2" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R2" s="3">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="S2" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="U2" s="3">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="V2" s="3" t="str">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v xml:space="preserve">MATURITY GROUP 4  </v>
+        <v xml:space="preserve">MATURITY GROUP 6  </v>
       </c>
       <c r="W2" s="3">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X2" s="3">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -1847,7 +1892,7 @@
       </c>
       <c r="AH2" s="3">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AI2" s="3">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -1859,11 +1904,11 @@
       </c>
       <c r="AK2" s="3">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AL2" s="3">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>0.36899999999999999</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="AM2" s="3">
         <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -1876,40 +1921,40 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
+        <v>384</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="3">
-        <v>12.83</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>0.29399999999999998</v>
       </c>
       <c r="F3" s="3">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="G3" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I3" s="3">
-        <v>39.5</v>
+        <v>41.5</v>
       </c>
       <c r="J3" s="3">
         <v>26</v>
       </c>
       <c r="K3" s="3">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="L3" s="3">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="M3" s="3">
         <v>180</v>
@@ -1918,22 +1963,22 @@
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="P3" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="R3" s="3">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="S3" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T3" s="3">
-        <v>0.378</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="U3" s="3">
         <v>0.20499999999999999</v>
@@ -1988,7 +2033,7 @@
       </c>
       <c r="AH3" s="3">
         <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>23.5</v>
+        <v>26</v>
       </c>
       <c r="AI3" s="3">
         <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -2016,44 +2061,44 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>376</v>
+      <c r="A4" t="s">
+        <v>374</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
+        <v>385</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="3">
-        <v>12.58</v>
+        <v>12.83</v>
       </c>
       <c r="E4" s="3">
-        <v>0.311</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F4" s="3">
-        <v>23.1</v>
+        <v>14.4</v>
       </c>
       <c r="G4" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="I4" s="3">
-        <v>27</v>
+        <v>39.5</v>
       </c>
       <c r="J4" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="L4" s="3">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M4" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -2062,10 +2107,10 @@
         <v>0.19</v>
       </c>
       <c r="P4" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R4" s="3">
         <v>10</v>
@@ -2074,18 +2119,18 @@
         <v>78</v>
       </c>
       <c r="T4" s="3">
-        <v>0.4</v>
+        <v>0.378</v>
       </c>
       <c r="U4" s="3">
-        <v>0.2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="V4" s="3" t="str">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v xml:space="preserve">MATURITY GROUP 6  </v>
+        <v xml:space="preserve">MATURITY GROUP 4  </v>
       </c>
       <c r="W4" s="3">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X4" s="3">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -2129,7 +2174,7 @@
       </c>
       <c r="AH4" s="3">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>12</v>
+        <v>23.5</v>
       </c>
       <c r="AI4" s="3">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -2141,11 +2186,11 @@
       </c>
       <c r="AK4" s="3">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="3">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>0.45900000000000002</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="AM4" s="3">
         <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -2158,37 +2203,37 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
+        <v>376</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="3">
-        <v>13.59</v>
+        <v>13.4</v>
       </c>
       <c r="E5" s="3">
-        <v>0.249</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F5" s="3">
-        <v>17.399999999999999</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L5" s="3">
         <v>375</v>
@@ -2200,33 +2245,33 @@
         <v>1</v>
       </c>
       <c r="O5" s="3">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="P5" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="R5" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S5" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" s="3">
-        <v>0.45500000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="U5" s="3">
         <v>0.20499999999999999</v>
       </c>
       <c r="V5" s="3" t="str">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v xml:space="preserve">MATURITY GROUP 2  </v>
+        <v xml:space="preserve">MATURITY GROUP 3  </v>
       </c>
       <c r="W5" s="3">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5" s="3">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -2270,7 +2315,7 @@
       </c>
       <c r="AH5" s="3">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="AI5" s="3">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -2286,7 +2331,7 @@
       </c>
       <c r="AL5" s="3">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
-        <v>0.27900000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AM5" s="3">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
@@ -2294,6 +2339,852 @@
       </c>
       <c r="AN5" s="3">
         <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="I6" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J6" s="3">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L6" s="3">
+        <v>375</v>
+      </c>
+      <c r="M6" s="3">
+        <v>180</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P6" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R6" s="3">
+        <v>10</v>
+      </c>
+      <c r="S6" s="3">
+        <v>77</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V6" s="3" t="str">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 3  </v>
+      </c>
+      <c r="W6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN6" s="3">
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J7" s="3">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L7" s="3">
+        <v>375</v>
+      </c>
+      <c r="M7" s="3">
+        <v>180</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P7" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R7" s="3">
+        <v>10</v>
+      </c>
+      <c r="S7" s="3">
+        <v>77</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V7" s="3" t="str">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 3  </v>
+      </c>
+      <c r="W7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN7" s="3">
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J8" s="3">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L8" s="3">
+        <v>375</v>
+      </c>
+      <c r="M8" s="3">
+        <v>180</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P8" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R8" s="3">
+        <v>10</v>
+      </c>
+      <c r="S8" s="3">
+        <v>77</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V8" s="3" t="str">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 3  </v>
+      </c>
+      <c r="W8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN8" s="3">
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L9" s="3">
+        <v>375</v>
+      </c>
+      <c r="M9" s="3">
+        <v>180</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P9" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R9" s="3">
+        <v>10</v>
+      </c>
+      <c r="S9" s="3">
+        <v>77</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V9" s="3" t="str">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 3  </v>
+      </c>
+      <c r="W9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.33</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN9" s="3">
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13.09</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="J10" s="3">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L10" s="3">
+        <v>375</v>
+      </c>
+      <c r="M10" s="3">
+        <v>180</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P10" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R10" s="3">
+        <v>10</v>
+      </c>
+      <c r="S10" s="3">
+        <v>77</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V10" s="3" t="str">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 4  </v>
+      </c>
+      <c r="W10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="AM10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN10" s="3">
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13.59</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="F11" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3">
+        <v>26</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>375</v>
+      </c>
+      <c r="M11" s="3">
+        <v>180</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="P11" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R11" s="3">
+        <v>10</v>
+      </c>
+      <c r="S11" s="3">
+        <v>78</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V11" s="3" t="str">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 2  </v>
+      </c>
+      <c r="W11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="X11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>22.5</v>
+      </c>
+      <c r="AI11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="AM11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN11" s="3">
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -2304,11 +3195,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>SBGRO047.ECO!$A$2:$A$31</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5</xm:sqref>
+          <xm:sqref>C2:C4 C11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2317,7 +3208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,13 +3229,13 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -4262,10 +5153,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
@@ -4279,21 +5170,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3">
         <v>40</v>
@@ -4301,10 +5192,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3">
         <v>61</v>
@@ -4312,10 +5203,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3">
         <v>0.67</v>
@@ -4323,10 +5214,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>0.1</v>
@@ -4334,10 +5225,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3">
         <v>79</v>
@@ -4345,10 +5236,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3">
         <v>2.08</v>
@@ -4356,10 +5247,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3">
         <v>1.06E-2</v>
@@ -4367,21 +5258,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C9" s="3">
         <v>1.9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3">
@@ -4390,7 +5281,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="3">
@@ -4399,7 +5290,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="3">
@@ -4408,32 +5299,32 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="3">
@@ -4442,7 +5333,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="3">
@@ -4451,7 +5342,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="3">
@@ -4460,32 +5351,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3">
@@ -4494,7 +5385,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="3">
@@ -4503,7 +5394,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3">
@@ -4512,7 +5403,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="3">
@@ -4521,7 +5412,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="3">
@@ -4530,21 +5421,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="3">
@@ -4553,7 +5444,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="3">
@@ -4562,7 +5453,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="3">
@@ -4571,7 +5462,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="3">
@@ -4580,7 +5471,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="3">
@@ -4589,21 +5480,21 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="3">
@@ -4612,7 +5503,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="3">
@@ -4621,7 +5512,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="3">
@@ -4630,21 +5521,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3">
         <v>541</v>
@@ -4652,10 +5543,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3">
         <v>0.2</v>
@@ -4663,10 +5554,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C38" s="3">
         <v>0.8</v>
@@ -4674,10 +5565,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -4685,10 +5576,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C40" s="3">
         <v>3.5999999999999999E-3</v>
@@ -4696,10 +5587,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C41" s="3">
         <v>4.0000000000000002E-4</v>
@@ -4707,10 +5598,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3">
         <v>0.3</v>
@@ -4718,10 +5609,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3">
         <v>4.9000000000000004</v>
@@ -4729,10 +5620,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3">
         <v>1.03</v>
@@ -4740,21 +5631,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3">
         <v>1E-3</v>
@@ -4762,7 +5653,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C47" s="3">
         <v>2E-3</v>
@@ -4770,7 +5661,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3">
         <v>3.0000000000000001E-3</v>
@@ -4778,7 +5669,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C49" s="3">
         <v>3.5000000000000001E-3</v>
@@ -4786,7 +5677,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C50" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4794,7 +5685,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C51" s="3">
         <v>5.0000000000000001E-3</v>
@@ -4802,7 +5693,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="3">
         <v>6.0000000000000001E-3</v>
@@ -4810,7 +5701,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C53" s="3">
         <v>8.0000000000000002E-3</v>
@@ -4818,10 +5709,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C54" s="3">
         <v>0.01</v>
@@ -4829,18 +5720,18 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C55" s="3">
         <v>0.16200000000000001</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C56" s="3">
         <v>0.67900000000000005</v>
@@ -4848,7 +5739,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C57" s="3">
         <v>0.86699999999999999</v>
@@ -4856,7 +5747,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C58" s="3">
         <v>0.96599999999999997</v>
@@ -4864,7 +5755,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -4872,7 +5763,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C60" s="3">
         <v>1.0269999999999999</v>
@@ -4880,7 +5771,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C61" s="3">
         <v>1.069</v>
@@ -4888,7 +5779,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C62" s="3">
         <v>1.1000000000000001</v>
@@ -4896,7 +5787,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C63" s="3">
         <v>1.141</v>
@@ -4904,7 +5795,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3">
         <v>1.167</v>
@@ -4912,10 +5803,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C65" s="3">
         <v>1.1000000000000001</v>
@@ -4923,10 +5814,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C66" s="3">
         <v>0.68</v>
@@ -4934,10 +5825,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C67" s="3">
         <v>3.5E-4</v>
@@ -4945,10 +5836,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C68" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4956,10 +5847,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C69" s="3">
         <v>2.556</v>
@@ -4967,10 +5858,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" t="s">
         <v>114</v>
-      </c>
-      <c r="B70" t="s">
-        <v>118</v>
       </c>
       <c r="C70" s="3">
         <v>2.556</v>
@@ -4978,10 +5869,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C71" s="3">
         <v>0.36</v>
@@ -4989,10 +5880,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C72" s="3">
         <v>2.83</v>
@@ -5000,10 +5891,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C73" s="3">
         <v>1.242</v>
@@ -5011,10 +5902,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C74" s="3">
         <v>3.1059999999999999</v>
@@ -5022,10 +5913,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C75" s="3">
         <v>2.1739999999999999</v>
@@ -5033,10 +5924,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C76" s="3">
         <v>0.92900000000000005</v>
@@ -5044,10 +5935,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C77" s="3">
         <v>0.05</v>
@@ -5055,10 +5946,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C78" s="3">
         <v>1.1299999999999999</v>
@@ -5066,10 +5957,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C79" s="3">
         <v>0.28499999999999998</v>
@@ -5077,10 +5968,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C80" s="3">
         <v>6.4000000000000001E-2</v>
@@ -5088,10 +5979,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C81" s="3">
         <v>0.1</v>
@@ -5099,21 +5990,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C82" s="3">
         <v>7</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C83" s="3">
         <v>6</v>
@@ -5121,7 +6012,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C84" s="3">
         <v>-15</v>
@@ -5129,7 +6020,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
@@ -5137,7 +6028,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
@@ -5145,21 +6036,21 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C87" s="3">
         <v>28</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C88" s="3">
         <v>26</v>
@@ -5167,7 +6058,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C89" s="3">
         <v>26</v>
@@ -5175,7 +6066,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
@@ -5183,7 +6074,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
@@ -5191,21 +6082,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C92" s="3">
         <v>35</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C93" s="3">
         <v>30</v>
@@ -5213,7 +6104,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C94" s="3">
         <v>34</v>
@@ -5221,7 +6112,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -5229,7 +6120,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -5237,21 +6128,21 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C97" s="3">
         <v>45</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C98" s="3">
         <v>45</v>
@@ -5259,7 +6150,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C99" s="3">
         <v>45</v>
@@ -5267,7 +6158,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
@@ -5275,7 +6166,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
@@ -5283,21 +6174,21 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C103" s="3">
         <v>2</v>
@@ -5305,7 +6196,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
@@ -5313,7 +6204,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C105" s="3">
         <v>4</v>
@@ -5321,7 +6212,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C106" s="3">
         <v>5</v>
@@ -5329,7 +6220,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C107" s="3">
         <v>6</v>
@@ -5337,7 +6228,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C108" s="3">
         <v>6</v>
@@ -5345,7 +6236,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C109" s="3">
         <v>6</v>
@@ -5353,7 +6244,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C110" s="3">
         <v>9</v>
@@ -5361,7 +6252,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C111" s="3">
         <v>9</v>
@@ -5369,7 +6260,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C112" s="3">
         <v>11</v>
@@ -5377,7 +6268,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C113" s="3">
         <v>6</v>
@@ -5385,7 +6276,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C114" s="3">
         <v>6</v>
@@ -5393,241 +6284,241 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B128" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B141" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -5635,7 +6526,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
@@ -5643,7 +6534,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C144" s="3">
         <v>2</v>
@@ -5651,7 +6542,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C145" s="3">
         <v>2</v>
@@ -5659,7 +6550,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C146" s="3">
         <v>2</v>
@@ -5667,7 +6558,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C147" s="3">
         <v>2</v>
@@ -5675,7 +6566,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C148" s="3">
         <v>2</v>
@@ -5683,7 +6574,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C149" s="3">
         <v>3</v>
@@ -5691,7 +6582,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C150" s="3">
         <v>3</v>
@@ -5699,7 +6590,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
@@ -5707,7 +6598,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C152" s="3">
         <v>2</v>
@@ -5715,7 +6606,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C153" s="3">
         <v>2</v>
@@ -5723,21 +6614,21 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B154" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C154" s="3">
         <v>-0.2</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C155" s="3">
         <v>-0.2</v>
@@ -5745,7 +6636,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C156" s="3">
         <v>-0.4</v>
@@ -5753,7 +6644,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C157" s="3">
         <v>-0.4</v>
@@ -5761,7 +6652,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C158" s="3">
         <v>-0.4</v>
@@ -5769,7 +6660,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C159" s="3">
         <v>-0.4</v>
@@ -5777,7 +6668,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C160" s="3">
         <v>-0.4</v>
@@ -5785,7 +6676,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C161" s="3">
         <v>-0.4</v>
@@ -5793,7 +6684,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C162" s="3">
         <v>0.7</v>
@@ -5801,7 +6692,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C163" s="3">
         <v>0.7</v>
@@ -5809,7 +6700,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C164" s="3">
         <v>0</v>
@@ -5817,7 +6708,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C165" s="3">
         <v>-0.6</v>
@@ -5825,7 +6716,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C166" s="3">
         <v>-0.9</v>
@@ -5833,21 +6724,21 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B167" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C167" s="3">
         <v>0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C168" s="3">
         <v>0</v>
@@ -5855,7 +6746,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C169" s="3">
         <v>0</v>
@@ -5863,7 +6754,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C170" s="3">
         <v>0</v>
@@ -5871,7 +6762,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C171" s="3">
         <v>0</v>
@@ -5879,7 +6770,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
@@ -5887,7 +6778,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C173" s="3">
         <v>0</v>
@@ -5895,7 +6786,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
@@ -5903,7 +6794,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C175" s="3">
         <v>0.4</v>
@@ -5911,7 +6802,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C176" s="3">
         <v>0.4</v>
@@ -5919,7 +6810,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
@@ -5927,7 +6818,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C178" s="3">
         <v>0</v>
@@ -5935,7 +6826,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C179" s="3">
         <v>0</v>
@@ -5943,21 +6834,21 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C180" s="3">
         <v>0</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C181" s="3">
         <v>0</v>
@@ -5965,7 +6856,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
@@ -5973,7 +6864,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C183" s="3">
         <v>0</v>
@@ -5981,7 +6872,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C184" s="3">
         <v>0</v>
@@ -5989,7 +6880,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C185" s="3">
         <v>0</v>
@@ -5997,7 +6888,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
@@ -6005,7 +6896,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
@@ -6013,7 +6904,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C188" s="3">
         <v>0</v>
@@ -6021,7 +6912,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C189" s="3">
         <v>0</v>
@@ -6029,7 +6920,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C190" s="3">
         <v>0</v>
@@ -6037,7 +6928,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C191" s="3">
         <v>0</v>
@@ -6045,7 +6936,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C192" s="3">
         <v>0</v>
@@ -6053,10 +6944,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B193" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
@@ -6064,10 +6955,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B194" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C194" s="3">
         <v>0</v>
@@ -6075,10 +6966,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B195" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C195" s="3">
         <v>180</v>
@@ -6086,10 +6977,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B196" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C196" s="3">
         <v>350</v>
@@ -6097,10 +6988,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B197" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C197" s="3">
         <v>171.4</v>
@@ -6108,10 +6999,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B198" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C198" s="3">
         <v>5</v>
@@ -6119,10 +7010,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B199" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C199" s="3">
         <v>950</v>
@@ -6130,10 +7021,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B200" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C200" s="3">
         <v>250</v>
@@ -6141,10 +7032,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B201" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C201" s="3">
         <v>-4.8000000000000001E-2</v>
@@ -6152,10 +7043,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C202" s="3">
         <v>1.5</v>
@@ -6163,21 +7054,21 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C203" s="3">
         <v>0</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
@@ -6185,7 +7076,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C205" s="3">
         <v>2</v>
@@ -6193,7 +7084,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C206" s="3">
         <v>3</v>
@@ -6201,7 +7092,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C207" s="3">
         <v>4</v>
@@ -6209,7 +7100,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C208" s="3">
         <v>5</v>
@@ -6217,21 +7108,21 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B209" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C209" s="3">
         <v>0</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C210" s="3">
         <v>20</v>
@@ -6239,7 +7130,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C211" s="3">
         <v>55</v>
@@ -6247,7 +7138,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C212" s="3">
         <v>110</v>
@@ -6255,7 +7146,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C213" s="3">
         <v>200</v>
@@ -6263,7 +7154,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C214" s="3">
         <v>320</v>
@@ -6271,21 +7162,21 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C215" s="3">
         <v>-50</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C216" s="3">
         <v>0</v>
@@ -6293,7 +7184,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C217" s="3">
         <v>12</v>
@@ -6301,7 +7192,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C218" s="3">
         <v>22</v>
@@ -6309,7 +7200,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C219" s="3">
         <v>60</v>
@@ -6317,21 +7208,21 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C220" s="3">
         <v>0.25</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C221" s="3">
         <v>0.25</v>
@@ -6339,7 +7230,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C222" s="3">
         <v>0.25</v>
@@ -6347,7 +7238,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C223" s="3">
         <v>1</v>
@@ -6355,7 +7246,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C224" s="3">
         <v>1</v>
@@ -6363,10 +7254,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B225" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C225" s="3">
         <v>0.05</v>
@@ -6374,10 +7265,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C226" s="3">
         <v>0.24</v>
@@ -6385,10 +7276,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C227" s="3">
         <v>0.55000000000000004</v>
@@ -6396,10 +7287,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B228" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C228" s="3">
         <v>0.7</v>
@@ -6407,21 +7298,21 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C229" s="3">
         <v>0</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C230" s="3">
         <v>1.5</v>
@@ -6429,7 +7320,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C231" s="3">
         <v>3.3</v>
@@ -6437,7 +7328,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C232" s="3">
         <v>5</v>
@@ -6445,7 +7336,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C233" s="3">
         <v>7.8</v>
@@ -6453,7 +7344,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C234" s="3">
         <v>10.5</v>
@@ -6461,7 +7352,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C235" s="3">
         <v>30</v>
@@ -6469,7 +7360,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C236" s="3">
         <v>40</v>
@@ -6477,21 +7368,21 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B237" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C237" s="3">
         <v>0.41</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C238" s="3">
         <v>0.42</v>
@@ -6499,7 +7390,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C239" s="3">
         <v>0.42</v>
@@ -6507,7 +7398,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C240" s="3">
         <v>0.41</v>
@@ -6515,7 +7406,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C241" s="3">
         <v>0.36</v>
@@ -6523,7 +7414,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C242" s="3">
         <v>0.32</v>
@@ -6531,7 +7422,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C243" s="3">
         <v>0.31</v>
@@ -6539,7 +7430,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C244" s="3">
         <v>0.31</v>
@@ -6547,21 +7438,21 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B245" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C245" s="3">
         <v>0.09</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C246" s="3">
         <v>0.13</v>
@@ -6569,7 +7460,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C247" s="3">
         <v>0.21</v>
@@ -6577,7 +7468,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C248" s="3">
         <v>0.28999999999999998</v>
@@ -6585,7 +7476,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C249" s="3">
         <v>0.37</v>
@@ -6593,7 +7484,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C250" s="3">
         <v>0.49</v>
@@ -6601,7 +7492,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C251" s="3">
         <v>0.49</v>
@@ -6609,7 +7500,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C252" s="3">
         <v>0.49</v>
@@ -6617,10 +7508,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B253" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C253" s="3">
         <v>0.57999999999999996</v>
@@ -6628,10 +7519,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B254" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C254" s="3">
         <v>0.55000000000000004</v>
@@ -6639,10 +7530,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B255" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C255" s="3">
         <v>0.40500000000000003</v>
@@ -6650,10 +7541,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B256" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C256" s="3">
         <v>0.48</v>
@@ -6661,10 +7552,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B257" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C257" s="3">
         <v>0.71099999999999997</v>
@@ -6672,10 +7563,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B258" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C258" s="3">
         <v>0.315</v>
@@ -6683,10 +7574,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B259" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C259" s="3">
         <v>0.38</v>
@@ -6694,10 +7585,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B260" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C260" s="3">
         <v>0.66400000000000003</v>
@@ -6705,10 +7596,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B261" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C261" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6716,10 +7607,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B262" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C262" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6727,10 +7618,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B263" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C263" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6738,10 +7629,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B264" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C264" s="3">
         <v>0.02</v>
@@ -6749,10 +7640,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B265" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C265" s="3">
         <v>0.28000000000000003</v>
@@ -6760,10 +7651,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B266" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C266" s="3">
         <v>7.0000000000000007E-2</v>
@@ -6771,10 +7662,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B267" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C267" s="3">
         <v>2.5000000000000001E-2</v>
@@ -6782,10 +7673,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B268" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C268" s="3">
         <v>0.05</v>
@@ -6793,10 +7684,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B269" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C269" s="3">
         <v>0.02</v>
@@ -6804,10 +7695,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B270" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C270" s="3">
         <v>0.02</v>
@@ -6815,10 +7706,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B271" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C271" s="3">
         <v>0.02</v>
@@ -6826,10 +7717,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B272" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C272" s="3">
         <v>9.4E-2</v>
@@ -6837,10 +7728,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B273" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C273" s="3">
         <v>0.05</v>
@@ -6848,10 +7739,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B274" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C274" s="3">
         <v>5.7000000000000002E-2</v>
@@ -6859,10 +7750,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B275" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C275" s="3">
         <v>2.5000000000000001E-2</v>
@@ -6870,10 +7761,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B276" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C276" s="3">
         <v>0.03</v>
@@ -6881,10 +7772,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B277" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C277" s="3">
         <v>4.5999999999999999E-2</v>
@@ -6892,10 +7783,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B278" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C278" s="3">
         <v>0.05</v>
@@ -6903,10 +7794,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B279" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C279" s="3">
         <v>0.05</v>
@@ -6914,10 +7805,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B280" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C280" s="3">
         <v>0.05</v>
@@ -6925,10 +7816,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B281" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C281" s="3">
         <v>0.04</v>
@@ -6936,10 +7827,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B282" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C282" s="3">
         <v>0.04</v>
@@ -6947,10 +7838,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B283" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C283" s="3">
         <v>0.04</v>
@@ -6958,10 +7849,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B284" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C284" s="3">
         <v>0.05</v>
@@ -6969,10 +7860,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B285" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C285" s="3">
         <v>0.112</v>
@@ -6980,10 +7871,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B286" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C286" s="3">
         <v>0.35599999999999998</v>
@@ -6991,10 +7882,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B287" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C287" s="3">
         <v>0.08</v>
@@ -7002,10 +7893,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B288" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C288" s="3">
         <v>0.03</v>
@@ -7013,10 +7904,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B289" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C289" s="3">
         <v>0.3</v>
@@ -7024,10 +7915,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B290" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C290" s="3">
         <v>5.6000000000000001E-2</v>
@@ -7035,10 +7926,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B291" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C291" s="3">
         <v>9.1999999999999998E-2</v>
@@ -7046,10 +7937,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B292" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C292" s="3">
         <v>0.05</v>
@@ -7057,10 +7948,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B293" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C293" s="3">
         <v>0.25</v>
@@ -7068,10 +7959,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B294" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C294" s="3">
         <v>3.5000000000000003E-2</v>
@@ -7079,10 +7970,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B295" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C295" s="3">
         <v>0.15</v>
@@ -7090,10 +7981,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C296" s="3">
         <v>0.4</v>
@@ -7101,10 +7992,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B297" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C297" s="3">
         <v>0.8</v>
@@ -7112,10 +8003,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B298" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C298" s="3">
         <v>0.18</v>
@@ -7123,10 +8014,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B299" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C299" s="3">
         <v>23.65</v>
@@ -7134,10 +8025,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B300" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C300" s="3">
         <v>7.16</v>
@@ -7145,10 +8036,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B301" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C301" s="7">
         <v>9.0800002200000004E-3</v>
@@ -7156,21 +8047,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C302" s="12">
         <v>6</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C303" s="3">
         <v>21</v>
@@ -7178,7 +8069,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C304" s="3">
         <v>23.5</v>
@@ -7186,7 +8077,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C305" s="3">
         <v>41</v>
@@ -7194,10 +8085,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C306" s="12" t="str">
         <f xml:space="preserve"> "QDR"</f>
@@ -7206,21 +8097,21 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B307" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C307" s="3">
         <v>14</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C308" s="3">
         <v>21</v>
@@ -7228,7 +8119,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C309" s="3">
         <v>26.5</v>
@@ -7236,7 +8127,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C310" s="3">
         <v>40</v>
@@ -7244,10 +8135,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B311" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C311" s="3" t="str">
         <f xml:space="preserve"> "QDR"</f>
@@ -7256,10 +8147,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B312" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C312" s="3">
         <v>0</v>
@@ -7267,10 +8158,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B313" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C313" s="3">
         <v>0.3</v>
@@ -7278,10 +8169,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B314" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C314" s="3">
         <v>0</v>
@@ -7289,21 +8180,21 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B315" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C315" s="3">
         <v>0</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C316" s="3">
         <v>5</v>
@@ -7312,7 +8203,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C317" s="3">
         <v>20</v>
@@ -7321,7 +8212,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C318" s="3">
         <v>35</v>
@@ -7330,7 +8221,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C319" s="3">
         <v>45</v>
@@ -7339,7 +8230,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C320" s="3">
         <v>60</v>
@@ -7348,21 +8239,21 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B321" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C321" s="3">
         <v>1</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C322" s="3">
         <v>1</v>
@@ -7371,7 +8262,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C323" s="3">
         <v>1</v>
@@ -7380,7 +8271,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C324" s="3">
         <v>1</v>
@@ -7389,7 +8280,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C325" s="3">
         <v>0</v>
@@ -7398,7 +8289,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C326" s="3">
         <v>0</v>
@@ -7407,21 +8298,21 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B327" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C327" s="3">
         <v>0</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C328" s="3">
         <v>0.5</v>
@@ -7430,7 +8321,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C329" s="3">
         <v>0.75</v>
@@ -7439,7 +8330,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C330" s="3">
         <v>1</v>
@@ -7448,21 +8339,21 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B331" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C331" s="3">
         <v>0</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C332" s="3">
         <v>0</v>
@@ -7471,7 +8362,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C333" s="3">
         <v>0</v>
@@ -7480,7 +8371,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C334" s="3">
         <v>0</v>
@@ -7489,10 +8380,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B335" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C335" s="3">
         <v>15</v>
@@ -7500,10 +8391,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B336" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C336" s="3">
         <v>0.6</v>
@@ -7511,10 +8402,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B337" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C337" s="3">
         <v>0</v>
@@ -7522,10 +8413,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B338" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C338" s="3">
         <v>100</v>
@@ -7533,21 +8424,21 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B339" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C339" s="3">
         <v>0</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C340" s="3">
         <v>0.01</v>
@@ -7555,7 +8446,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C341" s="3">
         <v>0.25</v>
@@ -7563,7 +8454,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C342" s="3">
         <v>1</v>
@@ -7571,7 +8462,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C343" s="3">
         <v>1</v>
@@ -7579,21 +8470,21 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B344" t="s">
+        <v>244</v>
+      </c>
+      <c r="C344" s="3">
+        <v>1</v>
+      </c>
+      <c r="D344" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B344" t="s">
-        <v>248</v>
-      </c>
-      <c r="C344" s="3">
-        <v>1</v>
-      </c>
-      <c r="D344" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C345" s="3">
         <v>1</v>
@@ -7601,7 +8492,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C346" s="3">
         <v>1</v>
@@ -7609,7 +8500,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C347" s="3">
         <v>1</v>
@@ -7617,7 +8508,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C348" s="3">
         <v>1</v>
@@ -7625,21 +8516,21 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B349" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C349" s="3">
         <v>0</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C350" s="3">
         <v>0.5</v>
@@ -7647,7 +8538,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C351" s="3">
         <v>1</v>
@@ -7655,7 +8546,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C352" s="3">
         <v>1</v>
@@ -7663,21 +8554,21 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B353" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C353" s="3">
         <v>0</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C354" s="3">
         <v>1</v>
@@ -7685,7 +8576,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C355" s="3">
         <v>1</v>
@@ -7693,7 +8584,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C356" s="3">
         <v>1</v>
@@ -7701,10 +8592,10 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B357" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C357" s="3">
         <v>0.04</v>
@@ -7712,10 +8603,10 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B358" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C358" s="3">
         <v>0.08</v>
@@ -7723,10 +8614,10 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B359" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C359" s="3">
         <v>0.04</v>
@@ -7734,10 +8625,10 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B360" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C360" s="3">
         <v>0.08</v>
@@ -7745,10 +8636,10 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B361" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C361" s="3">
         <v>0.26</v>
@@ -7756,10 +8647,10 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B362" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C362" s="3">
         <v>0.75</v>
@@ -7767,10 +8658,10 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B363" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C363" s="3">
         <v>2.4E-2</v>
@@ -7778,10 +8669,10 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B364" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C364" s="3">
         <v>0.09</v>
@@ -7789,10 +8680,10 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B365" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C365" s="3">
         <v>0.15</v>
@@ -7800,10 +8691,10 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B366" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C366" s="3">
         <v>0.35</v>
@@ -7811,22 +8702,22 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B367" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="K367" s="15"/>
+        <v>371</v>
+      </c>
+      <c r="K367" s="14"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B368" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C368" s="3">
         <v>0.02</v>
@@ -7834,10 +8725,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B369" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C369" s="3">
         <v>7500</v>
@@ -7845,10 +8736,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B370" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C370" s="3">
         <v>0.1</v>
@@ -7856,10 +8747,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B371" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C371" s="3">
         <v>1.4999999999999999E-2</v>
@@ -7867,10 +8758,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B372" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C372" s="3">
         <v>0.02</v>
@@ -7878,10 +8769,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B373" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C373" s="3">
         <v>20</v>
@@ -7889,10 +8780,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B374" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C374" s="3">
         <v>0.1</v>
@@ -7900,10 +8791,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B375" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C375" s="3">
         <v>0</v>
@@ -7911,21 +8802,21 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B376" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C376" s="3">
         <v>0</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C377" s="3">
         <v>3</v>
@@ -7933,7 +8824,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C378" s="3">
         <v>6</v>
@@ -7941,7 +8832,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C379" s="3">
         <v>30</v>
@@ -7949,21 +8840,21 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B380" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C380" s="3">
         <v>2.5</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C381" s="3">
         <v>2.5</v>
@@ -7971,7 +8862,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C382" s="3">
         <v>2.6</v>
@@ -7979,7 +8870,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C383" s="3">
         <v>2.6</v>
@@ -7987,10 +8878,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B384" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C384" s="3">
         <v>1.5</v>
@@ -7998,10 +8889,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B385" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C385" s="3">
         <v>0.04</v>
@@ -8009,10 +8900,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B386" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C386" s="3">
         <v>6.0000000000000001E-3</v>
@@ -8020,10 +8911,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B387" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C387" s="3">
         <v>6.0000000000000001E-3</v>
@@ -8031,10 +8922,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B388" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C388" s="3">
         <v>0</v>
@@ -8042,76 +8933,76 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B389" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B390" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B391" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B392" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B393" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B394" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C394" s="3">
         <v>5</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C395" s="3">
         <v>20</v>
@@ -8119,7 +9010,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C396" s="3">
         <v>35</v>
@@ -8127,7 +9018,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C397" s="3">
         <v>44</v>
@@ -8135,21 +9026,21 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B398" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C398" s="3">
         <v>7</v>
       </c>
       <c r="D398" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C399" s="3">
         <v>22</v>
@@ -8157,7 +9048,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C400" s="3">
         <v>35</v>
@@ -8165,7 +9056,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C401" s="3">
         <v>44</v>
@@ -8173,21 +9064,21 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B402" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C402" s="3">
         <v>0</v>
       </c>
       <c r="D402" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C403" s="3">
         <v>0.85</v>
@@ -8195,7 +9086,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C404" s="3">
         <v>1</v>
@@ -8203,7 +9094,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C405" s="3">
         <v>10</v>
@@ -8211,21 +9102,21 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B406" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C406" s="3">
         <v>-0.02</v>
       </c>
       <c r="D406" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C407" s="3">
         <v>1E-3</v>
@@ -8233,7 +9124,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C408" s="3">
         <v>1</v>
@@ -8241,7 +9132,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C409" s="3">
         <v>2</v>
@@ -8249,21 +9140,21 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B410" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C410" s="3">
         <v>0</v>
       </c>
       <c r="D410" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C411" s="3">
         <v>10</v>
@@ -8271,7 +9162,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C412" s="3">
         <v>1</v>
@@ -8279,7 +9170,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C413" s="3">
         <v>0</v>
@@ -8287,10 +9178,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B414" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C414" s="3">
         <v>7.0000000000000007E-2</v>
@@ -8298,10 +9189,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B415" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C415" s="3">
         <v>0.17</v>
@@ -8309,10 +9200,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B416" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C416" s="3">
         <v>1.4E-2</v>
@@ -8320,10 +9211,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B417" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C417" s="3">
         <v>4.4999999999999998E-2</v>
@@ -8331,10 +9222,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B418" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C418" s="3">
         <v>0.05</v>
@@ -8342,10 +9233,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B419" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C419" s="3">
         <v>1</v>
@@ -8353,21 +9244,21 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B420" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C420" s="3">
         <v>0</v>
       </c>
       <c r="D420" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C421" s="3">
         <v>5</v>
@@ -8375,7 +9266,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C422" s="3">
         <v>7.5</v>
@@ -8383,7 +9274,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C423" s="3">
         <v>10</v>
@@ -8391,7 +9282,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C424" s="3">
         <v>15</v>
@@ -8399,7 +9290,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C425" s="3">
         <v>20</v>
@@ -8407,7 +9298,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C426" s="3">
         <v>30</v>
@@ -8415,7 +9306,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C427" s="3">
         <v>80</v>
@@ -8423,21 +9314,21 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B428" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C428" s="3">
         <v>4</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C429" s="3">
         <v>2</v>
@@ -8445,7 +9336,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C430" s="3">
         <v>1.5</v>
@@ -8453,7 +9344,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C431" s="3">
         <v>1.25</v>
@@ -8461,7 +9352,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C432" s="3">
         <v>1.05</v>
@@ -8469,7 +9360,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C433" s="3">
         <v>1</v>
@@ -8477,7 +9368,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C434" s="3">
         <v>1</v>
@@ -8485,7 +9376,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C435" s="3">
         <v>1</v>
@@ -8493,21 +9384,21 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B436" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C436" s="3">
         <v>-50</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C437" s="3">
         <v>0</v>
@@ -8515,7 +9406,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C438" s="3">
         <v>15</v>
@@ -8523,7 +9414,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C439" s="3">
         <v>26</v>
@@ -8531,7 +9422,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C440" s="3">
         <v>60</v>
@@ -8539,21 +9430,21 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B441" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C441" s="3">
         <v>0.4</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C442" s="3">
         <v>0.4</v>
@@ -8561,7 +9452,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C443" s="3">
         <v>0.5</v>
@@ -8569,7 +9460,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C444" s="3">
         <v>1</v>
@@ -8577,7 +9468,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C445" s="3">
         <v>1</v>
@@ -8585,21 +9476,21 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B446" t="s">
+        <v>268</v>
+      </c>
+      <c r="C446" s="3">
+        <v>0</v>
+      </c>
+      <c r="D446" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B446" t="s">
-        <v>272</v>
-      </c>
-      <c r="C446" s="3">
-        <v>0</v>
-      </c>
-      <c r="D446" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C447" s="3">
         <v>1</v>
@@ -8607,7 +9498,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C448" s="3">
         <v>4</v>
@@ -8615,7 +9506,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C449" s="3">
         <v>6</v>
@@ -8623,7 +9514,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C450" s="3">
         <v>8</v>
@@ -8631,7 +9522,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C451" s="3">
         <v>10</v>
@@ -8639,7 +9530,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C452" s="3">
         <v>14</v>
@@ -8647,7 +9538,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C453" s="3">
         <v>16</v>
@@ -8655,7 +9546,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C454" s="3">
         <v>20</v>
@@ -8663,7 +9554,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C455" s="3">
         <v>40</v>
@@ -8671,21 +9562,21 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B456" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C456" s="3">
         <v>0.03</v>
       </c>
       <c r="D456" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C457" s="3">
         <v>5.2999999999999999E-2</v>
@@ -8693,7 +9584,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C458" s="3">
         <v>6.3E-2</v>
@@ -8701,7 +9592,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C459" s="3">
         <v>6.6000000000000003E-2</v>
@@ -8709,7 +9600,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C460" s="3">
         <v>6.9000000000000006E-2</v>
@@ -8717,7 +9608,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C461" s="3">
         <v>6.6000000000000003E-2</v>
@@ -8725,7 +9616,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C462" s="3">
         <v>6.2E-2</v>
@@ -8733,7 +9624,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C463" s="3">
         <v>5.0999999999999997E-2</v>
@@ -8741,7 +9632,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C464" s="3">
         <v>3.4000000000000002E-2</v>
@@ -8749,7 +9640,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C465" s="3">
         <v>6.0000000000000001E-3</v>
@@ -8757,21 +9648,21 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B466" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C466" s="3">
         <v>0.03</v>
       </c>
       <c r="D466" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C467" s="3">
         <v>5.0999999999999997E-2</v>
@@ -8779,7 +9670,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C468" s="3">
         <v>6.2E-2</v>
@@ -8787,7 +9678,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C469" s="3">
         <v>6.4000000000000001E-2</v>
@@ -8795,7 +9686,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C470" s="3">
         <v>6.6000000000000003E-2</v>
@@ -8803,7 +9694,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C471" s="3">
         <v>6.3E-2</v>
@@ -8811,7 +9702,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C472" s="3">
         <v>5.8999999999999997E-2</v>
@@ -8819,7 +9710,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C473" s="3">
         <v>4.5999999999999999E-2</v>
@@ -8827,7 +9718,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C474" s="3">
         <v>2.5000000000000001E-2</v>
@@ -8835,7 +9726,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C475" s="3">
         <v>1E-3</v>
@@ -8843,10 +9734,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B476" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C476" s="3">
         <f xml:space="preserve"> -2.22</f>
@@ -8855,10 +9746,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B477" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C477" s="3">
         <f xml:space="preserve"> -5</f>
@@ -8867,10 +9758,10 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B478" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C478" s="3">
         <v>0.8</v>
@@ -8878,10 +9769,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B479" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C479" s="3">
         <v>10</v>
@@ -8889,10 +9780,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B480" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C480" s="3">
         <v>0.06</v>
@@ -8900,10 +9791,10 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B481" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C481" s="3">
         <v>0.2</v>
@@ -8911,10 +9802,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B482" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C482" s="3">
         <v>0.8</v>
@@ -8922,21 +9813,21 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B483" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C483" s="3">
         <v>0</v>
       </c>
       <c r="D483" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C484" s="3">
         <v>0.2</v>
@@ -8944,7 +9835,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C485" s="3">
         <v>0.6</v>
@@ -8952,7 +9843,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C486" s="3">
         <v>0.6</v>
@@ -8960,21 +9851,21 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B487" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C487" s="3">
         <v>0</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C488" s="3">
         <v>0</v>
@@ -8982,7 +9873,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C489" s="3">
         <v>0.12</v>
@@ -8990,7 +9881,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C490" s="3">
         <v>0.12</v>
@@ -8998,21 +9889,21 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B491" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C491" s="3">
         <v>3</v>
       </c>
       <c r="D491" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C492" s="3">
         <v>5</v>
@@ -9020,7 +9911,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C493" s="3">
         <v>10</v>
@@ -9028,7 +9919,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C494" s="3">
         <v>30</v>
@@ -9036,21 +9927,21 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B495" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C495" s="3">
         <v>0</v>
       </c>
       <c r="D495" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C496" s="3">
         <v>5</v>
@@ -9058,7 +9949,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C497" s="3">
         <v>14</v>
@@ -9066,7 +9957,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C498" s="3">
         <v>30</v>
@@ -9074,21 +9965,21 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B499" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B500" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C500" s="3">
         <v>6</v>
@@ -9096,10 +9987,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B501" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C501" s="3">
         <v>0.39610000000000001</v>
@@ -9107,10 +9998,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B502" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C502" s="3">
         <v>-0.86499999999999999</v>
@@ -9118,10 +10009,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B503" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C503" s="3">
         <v>1</v>
@@ -9129,17 +10020,17 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B504" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C504" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C504" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:C504"/>
   <sortState ref="B116:C158">
     <sortCondition ref="B116:B158"/>
   </sortState>

--- a/R/CropModels/Soybean/SoybeanParams.xlsx
+++ b/R/CropModels/Soybean/SoybeanParams.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="410">
   <si>
     <t>MG</t>
   </si>
@@ -1223,6 +1223,60 @@
   </si>
   <si>
     <t>soybean10</t>
+  </si>
+  <si>
+    <t>BMXAPL M GROUP 5</t>
+  </si>
+  <si>
+    <t>BRS246 M GROUP 7</t>
+  </si>
+  <si>
+    <t>BMXPOT M GROUP 7</t>
+  </si>
+  <si>
+    <t>FUND57 M GROUP 7</t>
+  </si>
+  <si>
+    <t>NA5909 M GROUP 6</t>
+  </si>
+  <si>
+    <t>soybean11</t>
+  </si>
+  <si>
+    <t>soybean12</t>
+  </si>
+  <si>
+    <t>soybean13</t>
+  </si>
+  <si>
+    <t>soybean14</t>
+  </si>
+  <si>
+    <t>soybean15</t>
+  </si>
+  <si>
+    <t>MATURITY GROUP 0</t>
+  </si>
+  <si>
+    <t>MATURITY GROUP00</t>
+  </si>
+  <si>
+    <t>DEFAULT TYPE</t>
+  </si>
+  <si>
+    <t>SB1002</t>
+  </si>
+  <si>
+    <t>SB1003</t>
+  </si>
+  <si>
+    <t>SB1004</t>
+  </si>
+  <si>
+    <t>SB1005</t>
+  </si>
+  <si>
+    <t>DFAULT</t>
   </si>
 </sst>
 </file>
@@ -1637,13 +1691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2:AN11"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,79 +1897,79 @@
         <v>0.2</v>
       </c>
       <c r="V2" s="3" t="str">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 6  </v>
       </c>
       <c r="W2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="X2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AI2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="AL2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.45900000000000002</v>
       </c>
       <c r="AM2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>20</v>
       </c>
       <c r="AN2" s="3">
-        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C2,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -1984,79 +2038,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V3" s="3" t="str">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 4  </v>
       </c>
       <c r="W3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>4</v>
       </c>
       <c r="X3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>26</v>
       </c>
       <c r="AI3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.36899999999999999</v>
       </c>
       <c r="AM3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>20</v>
       </c>
       <c r="AN3" s="3">
-        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C3,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -2125,79 +2179,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V4" s="3" t="str">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 4  </v>
       </c>
       <c r="W4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>4</v>
       </c>
       <c r="X4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>23.5</v>
       </c>
       <c r="AI4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.36899999999999999</v>
       </c>
       <c r="AM4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>20</v>
       </c>
       <c r="AN4" s="3">
-        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C4,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -2266,79 +2320,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V5" s="3" t="str">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 3  </v>
       </c>
       <c r="W5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3</v>
       </c>
       <c r="X5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>26</v>
       </c>
       <c r="AI5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="AM5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>18</v>
       </c>
       <c r="AN5" s="3">
-        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C5,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -2407,79 +2461,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V6" s="3" t="str">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 3  </v>
       </c>
       <c r="W6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3</v>
       </c>
       <c r="X6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>26</v>
       </c>
       <c r="AI6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="AM6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>18</v>
       </c>
       <c r="AN6" s="3">
-        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C6,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -2548,79 +2602,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V7" s="3" t="str">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 3  </v>
       </c>
       <c r="W7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3</v>
       </c>
       <c r="X7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>26</v>
       </c>
       <c r="AI7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="AM7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>18</v>
       </c>
       <c r="AN7" s="3">
-        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C7,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -2689,79 +2743,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V8" s="3" t="str">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 3  </v>
       </c>
       <c r="W8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3</v>
       </c>
       <c r="X8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>26</v>
       </c>
       <c r="AI8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="AM8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>18</v>
       </c>
       <c r="AN8" s="3">
-        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C8,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -2830,79 +2884,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V9" s="3" t="str">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 3  </v>
       </c>
       <c r="W9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3</v>
       </c>
       <c r="X9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>26</v>
       </c>
       <c r="AI9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.33</v>
       </c>
       <c r="AJ9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="AM9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>18</v>
       </c>
       <c r="AN9" s="3">
-        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C9,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -2971,79 +3025,79 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V10" s="3" t="str">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 4  </v>
       </c>
       <c r="W10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>4</v>
       </c>
       <c r="X10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>26</v>
       </c>
       <c r="AI10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.36899999999999999</v>
       </c>
       <c r="AM10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>20</v>
       </c>
       <c r="AN10" s="3">
-        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C10,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -3112,79 +3166,784 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V11" s="3" t="str">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v xml:space="preserve">MATURITY GROUP 2  </v>
       </c>
       <c r="W11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2</v>
       </c>
       <c r="X11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="Y11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>3.6</v>
       </c>
       <c r="AA11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>6</v>
       </c>
       <c r="AB11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="AF11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>12</v>
       </c>
       <c r="AH11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>22.5</v>
       </c>
       <c r="AI11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.32</v>
       </c>
       <c r="AJ11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AK11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>1</v>
       </c>
       <c r="AL11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>0.27900000000000003</v>
       </c>
       <c r="AM11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>18</v>
       </c>
       <c r="AN11" s="3">
-        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$50,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <f>VLOOKUP($C11,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12.83</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J12" s="3">
+        <v>34</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L12" s="3">
+        <v>255</v>
+      </c>
+      <c r="M12" s="3">
+        <v>220</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="P12" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R12" s="3">
+        <v>10</v>
+      </c>
+      <c r="S12" s="3">
+        <v>78</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">INDETERMINATE     </v>
+      </c>
+      <c r="W12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN12" s="3">
+        <f>VLOOKUP($C12,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12.33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F13" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3">
+        <v>32</v>
+      </c>
+      <c r="J13" s="3">
+        <v>34</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L13" s="3">
+        <v>320</v>
+      </c>
+      <c r="M13" s="3">
+        <v>220</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P13" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R13" s="3">
+        <v>10</v>
+      </c>
+      <c r="S13" s="3">
+        <v>78</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V13" s="3" t="str">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">DETERMINATE TYPE  </v>
+      </c>
+      <c r="W13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="X13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.504</v>
+      </c>
+      <c r="AM13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN13" s="3">
+        <f>VLOOKUP($C13,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12.33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L14" s="3">
+        <v>350</v>
+      </c>
+      <c r="M14" s="3">
+        <v>220</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="P14" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R14" s="3">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>78</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V14" s="3" t="str">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">INDETERMINATE     </v>
+      </c>
+      <c r="W14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN14" s="3">
+        <f>VLOOKUP($C14,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12.33</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3">
+        <v>34</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L15" s="3">
+        <v>310</v>
+      </c>
+      <c r="M15" s="3">
+        <v>220</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="P15" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R15" s="3">
+        <v>10</v>
+      </c>
+      <c r="S15" s="3">
+        <v>78</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V15" s="3" t="str">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">DETERMINATE TYPE  </v>
+      </c>
+      <c r="W15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="X15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.504</v>
+      </c>
+      <c r="AM15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN15" s="3">
+        <f>VLOOKUP($C15,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12.58</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="F16" s="3">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J16" s="3">
+        <v>37</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L16" s="3">
+        <v>310</v>
+      </c>
+      <c r="M16" s="3">
+        <v>220</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="P16" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R16" s="3">
+        <v>10</v>
+      </c>
+      <c r="S16" s="3">
+        <v>78</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V16" s="3" t="str">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">INDETERMINATE     </v>
+      </c>
+      <c r="W16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN16" s="3">
+        <f>VLOOKUP($C16,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -3197,9 +3956,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>SBGRO047.ECO!$A$2:$A$31</xm:f>
+            <xm:f>SBGRO047.ECO!$A$2:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C4 C11</xm:sqref>
+          <xm:sqref>C2:C16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3209,13 +3968,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5144,6 +5903,378 @@
       </c>
       <c r="T31" s="3">
         <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L32" s="3">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3">
+        <v>26</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="S32" s="3">
+        <v>18</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L33" s="3">
+        <v>10</v>
+      </c>
+      <c r="M33" s="3">
+        <v>12</v>
+      </c>
+      <c r="N33" s="3">
+        <v>26</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="S33" s="3">
+        <v>20</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>5</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L34" s="3">
+        <v>10</v>
+      </c>
+      <c r="M34" s="3">
+        <v>12</v>
+      </c>
+      <c r="N34" s="3">
+        <v>26</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="S34" s="3">
+        <v>18</v>
+      </c>
+      <c r="T34" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L35" s="3">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3">
+        <v>12</v>
+      </c>
+      <c r="N35" s="3">
+        <v>26</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="S35" s="3">
+        <v>18</v>
+      </c>
+      <c r="T35" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>408</v>
+      </c>
+      <c r="B36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L36" s="3">
+        <v>10</v>
+      </c>
+      <c r="M36" s="3">
+        <v>12</v>
+      </c>
+      <c r="N36" s="3">
+        <v>26</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="S36" s="3">
+        <v>18</v>
+      </c>
+      <c r="T36" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="G37" s="3">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="L37" s="3">
+        <v>10</v>
+      </c>
+      <c r="M37" s="3">
+        <v>12</v>
+      </c>
+      <c r="N37" s="3">
+        <v>9</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.504</v>
+      </c>
+      <c r="S37" s="3">
+        <v>20</v>
+      </c>
+      <c r="T37" s="3">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/R/CropModels/Soybean/SoybeanParams.xlsx
+++ b/R/CropModels/Soybean/SoybeanParams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6072" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-6072" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SBGRO047.CUL" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SBGRO047.SPE" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SBGRO047.SPE!$A$1:$C$504</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SBGRO047.SPE!$A$1:$C$503</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="408">
   <si>
     <t>MG</t>
   </si>
@@ -624,9 +624,6 @@
     <t xml:space="preserve"> c(0.00,    0.85,  1.00,  10.0)</t>
   </si>
   <si>
-    <t xml:space="preserve"> c(0.00,    0.10,  1.00,  0.00)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> LIN</t>
   </si>
   <si>
@@ -1102,12 +1099,6 @@
   </si>
   <si>
     <t xml:space="preserve"> c(0.00,  0.00,  0.00,  0.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> c(0.00, 3.00, 6.00, 30.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> c(2.50, 2.50, 2.60, 2.60)</t>
   </si>
   <si>
     <t>NON</t>
@@ -1277,6 +1268,31 @@
   </si>
   <si>
     <t>DFAULT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> c(0.00,    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  1.00,  0.00)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1693,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1781,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>1</v>
@@ -1834,10 +1850,10 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>39</v>
@@ -1975,10 +1991,10 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>35</v>
@@ -2116,10 +2132,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>36</v>
@@ -2257,10 +2273,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
@@ -2398,10 +2414,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>32</v>
@@ -2539,10 +2555,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>32</v>
@@ -2680,10 +2696,10 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>32</v>
@@ -2821,10 +2837,10 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>34</v>
@@ -2962,10 +2978,10 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>35</v>
@@ -3103,10 +3119,10 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>28</v>
@@ -3244,10 +3260,10 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>18</v>
@@ -3385,10 +3401,10 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>17</v>
@@ -3526,10 +3542,10 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>18</v>
@@ -3667,10 +3683,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>17</v>
@@ -3808,10 +3824,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>18</v>
@@ -3994,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -5910,7 +5926,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -5969,10 +5985,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -6031,10 +6047,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -6093,10 +6109,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -6155,10 +6171,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -6217,10 +6233,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C37" s="3">
         <v>7</v>
@@ -6285,11 +6301,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K504"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D375" sqref="D375:D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6301,16 +6318,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -6321,7 +6338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>85</v>
       </c>
@@ -6332,7 +6349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -6343,7 +6360,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -6354,7 +6371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -6365,7 +6382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -6376,7 +6393,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -6387,12 +6404,12 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C9" s="3">
         <v>1.9</v>
@@ -6401,7 +6418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -6410,7 +6427,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
@@ -6419,7 +6436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -6428,7 +6445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -6439,12 +6456,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -6453,7 +6470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -6462,7 +6479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -6471,7 +6488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -6480,7 +6497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -6491,12 +6508,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -6505,7 +6522,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
@@ -6514,7 +6531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -6523,7 +6540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -6532,7 +6549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -6541,7 +6558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -6550,12 +6567,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -6564,7 +6581,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -6573,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -6582,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -6591,7 +6608,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
@@ -6600,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -6609,12 +6626,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -6623,7 +6640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -6632,7 +6649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
@@ -6641,7 +6658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>85</v>
       </c>
@@ -6650,7 +6667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>85</v>
       </c>
@@ -6661,7 +6678,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
@@ -6669,10 +6686,10 @@
         <v>98</v>
       </c>
       <c r="C36" s="3">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.4100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>85</v>
       </c>
@@ -6683,7 +6700,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
@@ -6694,7 +6711,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>85</v>
       </c>
@@ -6705,7 +6722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
@@ -6716,7 +6733,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>85</v>
       </c>
@@ -6727,7 +6744,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>85</v>
       </c>
@@ -6738,7 +6755,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -6749,7 +6766,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
@@ -6760,12 +6777,12 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -6774,7 +6791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
@@ -6782,7 +6799,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>85</v>
       </c>
@@ -6790,7 +6807,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>85</v>
       </c>
@@ -6798,7 +6815,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>85</v>
       </c>
@@ -6806,7 +6823,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>85</v>
       </c>
@@ -6814,7 +6831,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
@@ -6822,7 +6839,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
@@ -6830,7 +6847,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>85</v>
       </c>
@@ -6838,21 +6855,21 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B54" t="s">
-        <v>368</v>
-      </c>
       <c r="C54" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="B55" t="s">
+        <v>365</v>
+      </c>
       <c r="C55" s="3">
         <v>0.16200000000000001</v>
       </c>
@@ -6860,7 +6877,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>85</v>
       </c>
@@ -6868,7 +6885,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>85</v>
       </c>
@@ -6876,7 +6893,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>85</v>
       </c>
@@ -6884,7 +6901,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
@@ -6892,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>85</v>
       </c>
@@ -6900,7 +6917,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>85</v>
       </c>
@@ -6908,7 +6925,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>85</v>
       </c>
@@ -6916,7 +6933,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>85</v>
       </c>
@@ -6924,7 +6941,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>85</v>
       </c>
@@ -6932,7 +6949,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>153</v>
       </c>
@@ -6943,7 +6960,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>153</v>
       </c>
@@ -6954,7 +6971,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>110</v>
       </c>
@@ -6965,7 +6982,7 @@
         <v>3.5E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>110</v>
       </c>
@@ -6976,7 +6993,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>110</v>
       </c>
@@ -6987,7 +7004,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>110</v>
       </c>
@@ -6998,7 +7015,7 @@
         <v>2.556</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>110</v>
       </c>
@@ -7009,7 +7026,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>110</v>
       </c>
@@ -7020,7 +7037,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>110</v>
       </c>
@@ -7031,7 +7048,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>110</v>
       </c>
@@ -7042,7 +7059,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>110</v>
       </c>
@@ -7053,7 +7070,7 @@
         <v>2.1739999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>110</v>
       </c>
@@ -7064,7 +7081,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>110</v>
       </c>
@@ -7075,7 +7092,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>110</v>
       </c>
@@ -7086,7 +7103,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>110</v>
       </c>
@@ -7097,1098 +7114,1098 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C82" s="3">
         <v>7</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C83" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C84" s="3">
         <v>-15</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" s="3">
         <v>28</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C88" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C92" s="3">
         <v>35</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C93" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C94" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C97" s="3">
         <v>45</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C99" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C103" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C105" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C106" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C107" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C108" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C109" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C110" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C111" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C112" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C113" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B115" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" t="s">
         <v>336</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B128" t="s">
-        <v>337</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C144" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C145" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C146" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C147" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C148" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C149" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C150" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C152" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C153" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B154" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C154" s="3">
         <v>-0.2</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C155" s="3">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C156" s="3">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C157" s="3">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C158" s="3">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C159" s="3">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C160" s="3">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C161" s="3">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C162" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C163" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C164" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C165" s="3">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C166" s="3">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B167" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C167" s="3">
         <v>0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C168" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C169" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C170" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C171" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C173" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C175" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C176" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C178" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C179" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C180" s="3">
         <v>0</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C181" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C183" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C184" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C185" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C188" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C189" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C190" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C191" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C192" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B194" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C194" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B195" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C195" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C196" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C197" s="3">
         <v>171.4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C198" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C199" s="3">
         <v>950</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C200" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C201" s="3">
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C202" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C203" s="3">
         <v>0</v>
@@ -8197,7 +8214,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>162</v>
       </c>
@@ -8205,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>162</v>
       </c>
@@ -8213,7 +8230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>162</v>
       </c>
@@ -8221,7 +8238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>162</v>
       </c>
@@ -8229,7 +8246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>162</v>
       </c>
@@ -8237,12 +8254,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209" s="3">
         <v>0</v>
@@ -8251,7 +8268,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>162</v>
       </c>
@@ -8259,7 +8276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>162</v>
       </c>
@@ -8267,7 +8284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>162</v>
       </c>
@@ -8275,7 +8292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>162</v>
       </c>
@@ -8283,7 +8300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>162</v>
       </c>
@@ -8291,21 +8308,21 @@
         <v>320</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C215" s="3">
         <v>-50</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>162</v>
       </c>
@@ -8313,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>162</v>
       </c>
@@ -8321,7 +8338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>162</v>
       </c>
@@ -8329,7 +8346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>162</v>
       </c>
@@ -8337,12 +8354,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B220" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="3">
         <v>0.25</v>
@@ -8351,7 +8368,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>162</v>
       </c>
@@ -8359,7 +8376,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>162</v>
       </c>
@@ -8367,7 +8384,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>162</v>
       </c>
@@ -8375,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>162</v>
       </c>
@@ -8383,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>154</v>
       </c>
@@ -8394,45 +8411,45 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B226" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C226" s="3">
         <v>0.24</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B227" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C227" s="3">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B228" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C228" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B229" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C229" s="3">
         <v>0</v>
@@ -8441,7 +8458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>154</v>
       </c>
@@ -8449,7 +8466,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>154</v>
       </c>
@@ -8457,7 +8474,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>154</v>
       </c>
@@ -8465,7 +8482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>154</v>
       </c>
@@ -8473,7 +8490,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>154</v>
       </c>
@@ -8481,7 +8498,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>154</v>
       </c>
@@ -8489,7 +8506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>154</v>
       </c>
@@ -8497,12 +8514,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B237" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C237" s="3">
         <v>0.41</v>
@@ -8511,7 +8528,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>154</v>
       </c>
@@ -8519,7 +8536,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>154</v>
       </c>
@@ -8527,7 +8544,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>154</v>
       </c>
@@ -8535,7 +8552,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>154</v>
       </c>
@@ -8543,7 +8560,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>154</v>
       </c>
@@ -8551,7 +8568,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>154</v>
       </c>
@@ -8559,7 +8576,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>154</v>
       </c>
@@ -8567,12 +8584,12 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B245" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C245" s="3">
         <v>0.09</v>
@@ -8581,7 +8598,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>154</v>
       </c>
@@ -8589,7 +8606,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>154</v>
       </c>
@@ -8597,7 +8614,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>154</v>
       </c>
@@ -8605,7 +8622,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>154</v>
       </c>
@@ -8613,7 +8630,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>154</v>
       </c>
@@ -8621,7 +8638,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>154</v>
       </c>
@@ -8629,7 +8646,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>154</v>
       </c>
@@ -8637,73 +8654,73 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B253" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C253" s="3">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B254" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C254" s="3">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B255" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C255" s="3">
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B256" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C256" s="3">
         <v>0.48</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B257" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C257" s="3">
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B258" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C258" s="3">
         <v>0.315</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>156</v>
       </c>
@@ -8714,51 +8731,51 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B260" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C260" s="3">
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B261" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C261" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B262" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C262" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B263" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C263" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>156</v>
       </c>
@@ -8769,7 +8786,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>156</v>
       </c>
@@ -8780,51 +8797,51 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B266" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C266" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B267" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C267" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B268" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C268" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B269" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C269" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>156</v>
       </c>
@@ -8835,51 +8852,51 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C271" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C272" s="3">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C273" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C274" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>156</v>
       </c>
@@ -8890,7 +8907,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>156</v>
       </c>
@@ -8901,51 +8918,51 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B277" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C277" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B278" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C278" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B279" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C279" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B280" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C280" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>156</v>
       </c>
@@ -8956,183 +8973,183 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B282" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C282" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B283" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="C283" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B284" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C284" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B285" t="s">
-        <v>295</v>
+        <v>143</v>
       </c>
       <c r="C285" s="3">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B286" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C286" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B287" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C287" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B288" t="s">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="C288" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B289" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C289" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B290" t="s">
-        <v>297</v>
+        <v>144</v>
       </c>
       <c r="C290" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B291" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="C291" s="3">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B292" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="C292" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B293" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="C293" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B294" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="C294" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B295" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="C295" s="3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B296" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="C296" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B297" t="s">
         <v>223</v>
       </c>
       <c r="C297" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>163</v>
       </c>
@@ -9140,10 +9157,10 @@
         <v>224</v>
       </c>
       <c r="C298" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>163</v>
       </c>
@@ -9151,132 +9168,132 @@
         <v>225</v>
       </c>
       <c r="C299" s="3">
-        <v>23.65</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.1680000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B300" t="s">
         <v>226</v>
       </c>
-      <c r="C300" s="3">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C300" s="7">
+        <v>9.0799999999999995E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B301" t="s">
+        <v>164</v>
+      </c>
+      <c r="B301" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C301" s="7">
-        <v>9.0800002200000004E-3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C301" s="12">
+        <v>6</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B302" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C302" s="12">
-        <v>6</v>
-      </c>
-      <c r="D302" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C302" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C303" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C304" s="3">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C305" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B305" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C305" s="12" t="str">
+        <f xml:space="preserve"> "QDR"</f>
+        <v>QDR</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B306" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C306" s="12" t="str">
+      <c r="B306" t="s">
+        <v>240</v>
+      </c>
+      <c r="C306" s="3">
+        <v>14</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C307" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C308" s="3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C309" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B310" t="s">
+        <v>241</v>
+      </c>
+      <c r="C310" s="3" t="str">
         <f xml:space="preserve"> "QDR"</f>
         <v>QDR</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B307" t="s">
-        <v>241</v>
-      </c>
-      <c r="C307" s="3">
-        <v>14</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C308" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C309" s="3">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C310" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B311" t="s">
-        <v>242</v>
-      </c>
-      <c r="C311" s="3" t="str">
-        <f xml:space="preserve"> "QDR"</f>
-        <v>QDR</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="C311" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>164</v>
       </c>
@@ -9284,10 +9301,10 @@
         <v>230</v>
       </c>
       <c r="C312" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>164</v>
       </c>
@@ -9295,10 +9312,10 @@
         <v>231</v>
       </c>
       <c r="C313" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>164</v>
       </c>
@@ -9308,81 +9325,79 @@
       <c r="C314" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D314" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B315" t="s">
-        <v>233</v>
-      </c>
       <c r="C315" s="3">
-        <v>0</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D315" s="3"/>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C316" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C317" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C318" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C319" s="3">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B320" t="s">
+        <v>233</v>
+      </c>
       <c r="C320" s="3">
-        <v>60</v>
-      </c>
-      <c r="D320" s="3"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B321" t="s">
-        <v>234</v>
-      </c>
       <c r="C321" s="3">
         <v>1</v>
       </c>
-      <c r="D321" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D321" s="3"/>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>164</v>
       </c>
@@ -9391,7 +9406,7 @@
       </c>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>164</v>
       </c>
@@ -9400,16 +9415,16 @@
       </c>
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C324" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>164</v>
       </c>
@@ -9418,71 +9433,71 @@
       </c>
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B326" t="s">
+        <v>234</v>
+      </c>
       <c r="C326" s="3">
         <v>0</v>
       </c>
-      <c r="D326" s="3"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D326" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B327" t="s">
-        <v>235</v>
-      </c>
       <c r="C327" s="3">
-        <v>0</v>
-      </c>
-      <c r="D327" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D327" s="3"/>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C328" s="3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C329" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B330" t="s">
+        <v>235</v>
+      </c>
       <c r="C330" s="3">
-        <v>1</v>
-      </c>
-      <c r="D330" s="3"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B331" t="s">
-        <v>236</v>
-      </c>
       <c r="C331" s="3">
         <v>0</v>
       </c>
-      <c r="D331" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D331" s="3"/>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>164</v>
       </c>
@@ -9491,7 +9506,7 @@
       </c>
       <c r="D332" s="3"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>164</v>
       </c>
@@ -9500,16 +9515,18 @@
       </c>
       <c r="D333" s="3"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B334" t="s">
+        <v>236</v>
+      </c>
       <c r="C334" s="3">
-        <v>0</v>
-      </c>
-      <c r="D334" s="3"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>164</v>
       </c>
@@ -9517,10 +9534,10 @@
         <v>237</v>
       </c>
       <c r="C335" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>164</v>
       </c>
@@ -9528,10 +9545,10 @@
         <v>238</v>
       </c>
       <c r="C336" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>164</v>
       </c>
@@ -9539,51 +9556,48 @@
         <v>239</v>
       </c>
       <c r="C337" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B338" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C338" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B339" t="s">
-        <v>243</v>
-      </c>
       <c r="C339" s="3">
-        <v>0</v>
-      </c>
-      <c r="D339" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C340" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C341" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>164</v>
       </c>
@@ -9591,29 +9605,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B343" t="s">
+        <v>243</v>
+      </c>
       <c r="C343" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D343" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B344" t="s">
-        <v>244</v>
-      </c>
       <c r="C344" s="3">
         <v>1</v>
       </c>
-      <c r="D344" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>164</v>
       </c>
@@ -9621,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>164</v>
       </c>
@@ -9629,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>164</v>
       </c>
@@ -9637,37 +9651,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B348" t="s">
+        <v>244</v>
+      </c>
       <c r="C348" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B349" t="s">
-        <v>245</v>
-      </c>
       <c r="C349" s="3">
-        <v>0</v>
-      </c>
-      <c r="D349" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C350" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>164</v>
       </c>
@@ -9675,29 +9689,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B352" t="s">
+        <v>245</v>
+      </c>
       <c r="C352" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B353" t="s">
-        <v>246</v>
-      </c>
       <c r="C353" s="3">
-        <v>0</v>
-      </c>
-      <c r="D353" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>164</v>
       </c>
@@ -9705,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>164</v>
       </c>
@@ -9713,15 +9727,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
+      </c>
+      <c r="B356" t="s">
+        <v>320</v>
       </c>
       <c r="C356" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>151</v>
       </c>
@@ -9729,10 +9746,10 @@
         <v>321</v>
       </c>
       <c r="C357" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>151</v>
       </c>
@@ -9740,10 +9757,10 @@
         <v>322</v>
       </c>
       <c r="C358" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>151</v>
       </c>
@@ -9751,110 +9768,110 @@
         <v>323</v>
       </c>
       <c r="C359" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B360" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="C360" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B361" t="s">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c r="C361" s="3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B362" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="C362" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B363" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C363" s="3">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B364" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C364" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B365" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C365" s="3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B366" t="s">
-        <v>161</v>
-      </c>
-      <c r="C366" s="3">
-        <v>0.35</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K366" s="14"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B367" t="s">
-        <v>370</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="K367" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="C367" s="3">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B368" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="C368" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>157</v>
       </c>
@@ -9862,10 +9879,10 @@
         <v>326</v>
       </c>
       <c r="C369" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>157</v>
       </c>
@@ -9873,10 +9890,10 @@
         <v>327</v>
       </c>
       <c r="C370" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>157</v>
       </c>
@@ -9884,10 +9901,10 @@
         <v>328</v>
       </c>
       <c r="C371" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="5" t="s">
         <v>157</v>
       </c>
@@ -9895,10 +9912,10 @@
         <v>329</v>
       </c>
       <c r="C372" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>157</v>
       </c>
@@ -9906,10 +9923,10 @@
         <v>330</v>
       </c>
       <c r="C373" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="5" t="s">
         <v>157</v>
       </c>
@@ -9917,10 +9934,10 @@
         <v>331</v>
       </c>
       <c r="C374" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>157</v>
       </c>
@@ -9930,68 +9947,65 @@
       <c r="C375" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B376" t="s">
-        <v>333</v>
-      </c>
       <c r="C376" s="3">
-        <v>0</v>
-      </c>
-      <c r="D376" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C377" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C378" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>157</v>
       </c>
+      <c r="B379" t="s">
+        <v>333</v>
+      </c>
       <c r="C379" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
+      <c r="G379" s="4"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B380" t="s">
-        <v>334</v>
-      </c>
       <c r="C380" s="3">
         <v>2.5</v>
       </c>
-      <c r="D380" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C381" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>157</v>
       </c>
@@ -9999,23 +10013,26 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="5" t="s">
         <v>157</v>
       </c>
+      <c r="B383" t="s">
+        <v>148</v>
+      </c>
       <c r="C383" s="3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B384" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C384" s="3">
-        <v>1.5</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -10023,10 +10040,10 @@
         <v>157</v>
       </c>
       <c r="B385" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="C385" s="3">
-        <v>0.04</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -10034,35 +10051,35 @@
         <v>157</v>
       </c>
       <c r="B386" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C386" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B387" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="C387" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B388" t="s">
-        <v>150</v>
-      </c>
-      <c r="C388" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>158</v>
       </c>
@@ -10070,10 +10087,10 @@
         <v>248</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>158</v>
       </c>
@@ -10081,10 +10098,10 @@
         <v>249</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>158</v>
       </c>
@@ -10092,10 +10109,10 @@
         <v>250</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>158</v>
       </c>
@@ -10106,208 +10123,208 @@
         <v>197</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B393" t="s">
         <v>252</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C393" s="3">
+        <v>5</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B394" t="s">
-        <v>253</v>
-      </c>
       <c r="C394" s="3">
-        <v>5</v>
-      </c>
-      <c r="D394" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C395" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C396" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="B397" t="s">
+        <v>253</v>
+      </c>
       <c r="C397" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B398" t="s">
-        <v>254</v>
-      </c>
       <c r="C398" s="3">
-        <v>7</v>
-      </c>
-      <c r="D398" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C399" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C400" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="B401" t="s">
+        <v>254</v>
+      </c>
       <c r="C401" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B402" t="s">
-        <v>255</v>
-      </c>
       <c r="C402" s="3">
-        <v>0</v>
-      </c>
-      <c r="D402" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C403" s="3">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C404" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="B405" t="s">
+        <v>255</v>
+      </c>
       <c r="C405" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.02</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B406" t="s">
-        <v>256</v>
-      </c>
       <c r="C406" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="D406" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C407" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C408" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="B409" t="s">
+        <v>256</v>
+      </c>
       <c r="C409" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D409" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B410" t="s">
-        <v>257</v>
-      </c>
       <c r="C410" s="3">
-        <v>0</v>
-      </c>
-      <c r="D410" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C411" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C412" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="B413" t="s">
+        <v>257</v>
+      </c>
       <c r="C413" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>158</v>
       </c>
@@ -10315,10 +10332,10 @@
         <v>258</v>
       </c>
       <c r="C414" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>158</v>
       </c>
@@ -10326,10 +10343,10 @@
         <v>259</v>
       </c>
       <c r="C415" s="3">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
         <v>158</v>
       </c>
@@ -10337,10 +10354,10 @@
         <v>260</v>
       </c>
       <c r="C416" s="3">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
         <v>158</v>
       </c>
@@ -10348,148 +10365,145 @@
         <v>261</v>
       </c>
       <c r="C417" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B418" t="s">
         <v>262</v>
       </c>
       <c r="C418" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B419" t="s">
         <v>263</v>
       </c>
       <c r="C419" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D419" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B420" t="s">
-        <v>264</v>
-      </c>
       <c r="C420" s="3">
-        <v>0</v>
-      </c>
-      <c r="D420" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C421" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C422" s="3">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C423" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C424" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C425" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C426" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="B427" t="s">
+        <v>264</v>
+      </c>
       <c r="C427" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D427" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B428" t="s">
-        <v>265</v>
-      </c>
       <c r="C428" s="3">
-        <v>4</v>
-      </c>
-      <c r="D428" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C429" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C430" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C431" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C432" s="3">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>174</v>
       </c>
@@ -10497,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>174</v>
       </c>
@@ -10505,91 +10519,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="B435" t="s">
+        <v>265</v>
+      </c>
       <c r="C435" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-50</v>
+      </c>
+      <c r="D435" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B436" t="s">
-        <v>266</v>
-      </c>
       <c r="C436" s="3">
-        <v>-50</v>
-      </c>
-      <c r="D436" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C437" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C438" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C439" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="B440" t="s">
+        <v>266</v>
+      </c>
       <c r="C440" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+      <c r="D440" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B441" t="s">
-        <v>267</v>
-      </c>
       <c r="C441" s="3">
         <v>0.4</v>
       </c>
-      <c r="D441" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C442" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C443" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>174</v>
       </c>
@@ -10597,308 +10611,311 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="B445" t="s">
+        <v>267</v>
+      </c>
       <c r="C445" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D445" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B446" t="s">
-        <v>268</v>
-      </c>
       <c r="C446" s="3">
-        <v>0</v>
-      </c>
-      <c r="D446" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C447" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C448" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C449" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C450" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C451" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C452" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C453" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C454" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="B455" t="s">
+        <v>268</v>
+      </c>
       <c r="C455" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="D455" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B456" t="s">
-        <v>269</v>
-      </c>
       <c r="C456" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="D456" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C457" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C458" s="3">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C459" s="3">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C460" s="3">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C461" s="3">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C462" s="3">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C463" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C464" s="3">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="B465" t="s">
+        <v>269</v>
+      </c>
       <c r="C465" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="D465" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B466" t="s">
-        <v>270</v>
-      </c>
       <c r="C466" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="D466" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C467" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C468" s="3">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C469" s="3">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C470" s="3">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C471" s="3">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C472" s="3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C473" s="3">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C474" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
+      </c>
+      <c r="B475" t="s">
+        <v>133</v>
       </c>
       <c r="C475" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> -2.22</f>
+        <v>-2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B476" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C476" s="3">
-        <f xml:space="preserve"> -2.22</f>
-        <v>-2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> -5</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B477" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C477" s="3">
-        <f xml:space="preserve"> -5</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B478" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="C478" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>155</v>
       </c>
@@ -10906,10 +10923,10 @@
         <v>271</v>
       </c>
       <c r="C479" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>155</v>
       </c>
@@ -10917,10 +10934,10 @@
         <v>272</v>
       </c>
       <c r="C480" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>155</v>
       </c>
@@ -10928,10 +10945,10 @@
         <v>273</v>
       </c>
       <c r="C481" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
         <v>155</v>
       </c>
@@ -10939,32 +10956,29 @@
         <v>274</v>
       </c>
       <c r="C482" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D482" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B483" t="s">
-        <v>275</v>
-      </c>
       <c r="C483" s="3">
-        <v>0</v>
-      </c>
-      <c r="D483" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C484" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>155</v>
       </c>
@@ -10972,37 +10986,37 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="B486" t="s">
+        <v>275</v>
+      </c>
       <c r="C486" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D486" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B487" t="s">
-        <v>276</v>
-      </c>
       <c r="C487" s="3">
         <v>0</v>
       </c>
-      <c r="D487" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C488" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
         <v>155</v>
       </c>
@@ -11010,113 +11024,116 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="B490" t="s">
+        <v>276</v>
+      </c>
       <c r="C490" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D490" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B491" t="s">
-        <v>277</v>
-      </c>
       <c r="C491" s="3">
-        <v>3</v>
-      </c>
-      <c r="D491" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C492" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C493" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="B494" t="s">
+        <v>277</v>
+      </c>
       <c r="C494" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D494" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B495" t="s">
-        <v>278</v>
-      </c>
       <c r="C495" s="3">
-        <v>0</v>
-      </c>
-      <c r="D495" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C496" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C497" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C498" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="B498" t="s">
+        <v>129</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B499" t="s">
-        <v>129</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="C499" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B500" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="C500" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.39610000000000001</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="5" t="s">
         <v>152</v>
       </c>
@@ -11124,10 +11141,10 @@
         <v>279</v>
       </c>
       <c r="C501" s="3">
-        <v>0.39610000000000001</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
         <v>152</v>
       </c>
@@ -11135,10 +11152,10 @@
         <v>280</v>
       </c>
       <c r="C502" s="3">
-        <v>-0.86499999999999999</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
         <v>152</v>
       </c>
@@ -11146,22 +11163,17 @@
         <v>281</v>
       </c>
       <c r="C503" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B504" t="s">
-        <v>282</v>
-      </c>
-      <c r="C504" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C504"/>
+  <autoFilter ref="A1:C503">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="!*ROOT PARAMETERS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B116:C158">
     <sortCondition ref="B116:B158"/>
   </sortState>

--- a/R/CropModels/Soybean/SoybeanParams.xlsx
+++ b/R/CropModels/Soybean/SoybeanParams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6072" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="-6072" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="SBGRO047.CUL" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="433">
   <si>
     <t>MG</t>
   </si>
@@ -1293,6 +1293,81 @@
       </rPr>
       <t>,  1.00,  0.00)</t>
     </r>
+  </si>
+  <si>
+    <t>SoybeanMG0</t>
+  </si>
+  <si>
+    <t>SoybeanMG1</t>
+  </si>
+  <si>
+    <t>SoybeanMG2</t>
+  </si>
+  <si>
+    <t>SoybeanMG3</t>
+  </si>
+  <si>
+    <t>SoybeanMG4</t>
+  </si>
+  <si>
+    <t>SoybeanMG5</t>
+  </si>
+  <si>
+    <t>SoybeanMG6</t>
+  </si>
+  <si>
+    <t>SoybeanMG7</t>
+  </si>
+  <si>
+    <t>SoybeanMG8</t>
+  </si>
+  <si>
+    <t>SoybeanMG9</t>
+  </si>
+  <si>
+    <t>SoybeanMG10</t>
+  </si>
+  <si>
+    <t>SoybeanMG000</t>
+  </si>
+  <si>
+    <t>M GROUP 000</t>
+  </si>
+  <si>
+    <t>M GROUP 00</t>
+  </si>
+  <si>
+    <t>M GROUP 0</t>
+  </si>
+  <si>
+    <t>M GROUP 1</t>
+  </si>
+  <si>
+    <t>M GROUP 2</t>
+  </si>
+  <si>
+    <t>M GROUP 3</t>
+  </si>
+  <si>
+    <t>M GROUP 4</t>
+  </si>
+  <si>
+    <t>M GROUP 5</t>
+  </si>
+  <si>
+    <t>M GROUP 6</t>
+  </si>
+  <si>
+    <t>M GROUP 7</t>
+  </si>
+  <si>
+    <t>M GROUP 8</t>
+  </si>
+  <si>
+    <t>M GROUP 9</t>
+  </si>
+  <si>
+    <t>M GROUP 10</t>
   </si>
 </sst>
 </file>
@@ -1707,18 +1782,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="16"/>
     <col min="4" max="21" width="8.88671875" style="3"/>
@@ -3963,13 +4038,1846 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>26</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L17" s="3">
+        <v>375</v>
+      </c>
+      <c r="M17" s="3">
+        <v>180</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P17" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R17" s="3">
+        <v>10</v>
+      </c>
+      <c r="S17" s="3">
+        <v>77</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V17" s="3" t="str">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 0  </v>
+      </c>
+      <c r="W17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.189</v>
+      </c>
+      <c r="AM17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN17" s="3">
+        <f>VLOOKUP($C17,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14.35</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3">
+        <v>30</v>
+      </c>
+      <c r="J18" s="3">
+        <v>26</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L18" s="3">
+        <v>375</v>
+      </c>
+      <c r="M18" s="3">
+        <v>180</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P18" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R18" s="3">
+        <v>10</v>
+      </c>
+      <c r="S18" s="3">
+        <v>77</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V18" s="3" t="str">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 0  </v>
+      </c>
+      <c r="W18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.189</v>
+      </c>
+      <c r="AM18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN18" s="3">
+        <f>VLOOKUP($C18,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="J19" s="3">
+        <v>26</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L19" s="3">
+        <v>375</v>
+      </c>
+      <c r="M19" s="3">
+        <v>180</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P19" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R19" s="3">
+        <v>10</v>
+      </c>
+      <c r="S19" s="3">
+        <v>77</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V19" s="3" t="str">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 0  </v>
+      </c>
+      <c r="W19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.189</v>
+      </c>
+      <c r="AM19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN19" s="3">
+        <f>VLOOKUP($C19,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13.84</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="J20" s="3">
+        <v>26</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L20" s="3">
+        <v>375</v>
+      </c>
+      <c r="M20" s="3">
+        <v>180</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P20" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R20" s="3">
+        <v>10</v>
+      </c>
+      <c r="S20" s="3">
+        <v>77</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V20" s="3" t="str">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 1  </v>
+      </c>
+      <c r="W20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AM20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN20" s="3">
+        <f>VLOOKUP($C20,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3">
+        <v>13.59</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="F21" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>32.4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>26</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L21" s="3">
+        <v>375</v>
+      </c>
+      <c r="M21" s="3">
+        <v>180</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P21" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R21" s="3">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3">
+        <v>77</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V21" s="3" t="str">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 2  </v>
+      </c>
+      <c r="W21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="AM21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN21" s="3">
+        <f>VLOOKUP($C21,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F22" s="3">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6</v>
+      </c>
+      <c r="H22" s="3">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J22" s="3">
+        <v>26</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L22" s="3">
+        <v>375</v>
+      </c>
+      <c r="M22" s="3">
+        <v>180</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P22" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R22" s="3">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3">
+        <v>77</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V22" s="3" t="str">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 3  </v>
+      </c>
+      <c r="W22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN22" s="3">
+        <f>VLOOKUP($C22,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13.09</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F23" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3">
+        <v>34</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L23" s="3">
+        <v>375</v>
+      </c>
+      <c r="M23" s="3">
+        <v>180</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P23" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R23" s="3">
+        <v>10</v>
+      </c>
+      <c r="S23" s="3">
+        <v>77</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V23" s="3" t="str">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 4  </v>
+      </c>
+      <c r="W23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="X23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="AM23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN23" s="3">
+        <f>VLOOKUP($C23,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3">
+        <v>12.83</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J24" s="3">
+        <v>18</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L24" s="3">
+        <v>375</v>
+      </c>
+      <c r="M24" s="3">
+        <v>180</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="P24" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R24" s="3">
+        <v>10</v>
+      </c>
+      <c r="S24" s="3">
+        <v>78</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V24" s="3" t="str">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 5  </v>
+      </c>
+      <c r="W24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AM24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN24" s="3">
+        <f>VLOOKUP($C24,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3">
+        <v>12.58</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="F25" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3">
+        <v>16</v>
+      </c>
+      <c r="I25" s="3">
+        <v>35.6</v>
+      </c>
+      <c r="J25" s="3">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L25" s="3">
+        <v>375</v>
+      </c>
+      <c r="M25" s="3">
+        <v>180</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="P25" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R25" s="3">
+        <v>10</v>
+      </c>
+      <c r="S25" s="3">
+        <v>78</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V25" s="3" t="str">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 6  </v>
+      </c>
+      <c r="W25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="X25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AM25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN25" s="3">
+        <f>VLOOKUP($C25,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3">
+        <v>12.33</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F26" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>18</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L26" s="3">
+        <v>375</v>
+      </c>
+      <c r="M26" s="3">
+        <v>180</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="P26" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R26" s="3">
+        <v>10</v>
+      </c>
+      <c r="S26" s="3">
+        <v>78</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V26" s="3" t="str">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 7  </v>
+      </c>
+      <c r="W26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="X26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.504</v>
+      </c>
+      <c r="AM26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN26" s="3">
+        <f>VLOOKUP($C26,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3">
+        <v>12.07</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F27" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J27" s="3">
+        <v>18</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L27" s="3">
+        <v>375</v>
+      </c>
+      <c r="M27" s="3">
+        <v>180</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="P27" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R27" s="3">
+        <v>10</v>
+      </c>
+      <c r="S27" s="3">
+        <v>78</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V27" s="3" t="str">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 8  </v>
+      </c>
+      <c r="W27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="X27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AM27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN27" s="3">
+        <f>VLOOKUP($C27,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" t="s">
+        <v>431</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3">
+        <v>11.88</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="F28" s="3">
+        <v>23</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3">
+        <v>16</v>
+      </c>
+      <c r="I28" s="3">
+        <v>37.4</v>
+      </c>
+      <c r="J28" s="3">
+        <v>18</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L28" s="3">
+        <v>375</v>
+      </c>
+      <c r="M28" s="3">
+        <v>180</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="P28" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R28" s="3">
+        <v>10</v>
+      </c>
+      <c r="S28" s="3">
+        <v>78</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V28" s="3" t="str">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 9  </v>
+      </c>
+      <c r="W28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="X28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AM28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN28" s="3">
+        <f>VLOOKUP($C28,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3">
+        <v>11.78</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F29" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3">
+        <v>37.4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>18</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L29" s="3">
+        <v>375</v>
+      </c>
+      <c r="M29" s="3">
+        <v>180</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="P29" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="R29" s="3">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
+        <v>78</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V29" s="3" t="str">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 10 </v>
+      </c>
+      <c r="W29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="AI29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AM29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AN29" s="3">
+        <f>VLOOKUP($C29,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>SBGRO047.ECO!$A$2:$A$37</xm:f>
@@ -6304,7 +8212,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D375" sqref="D375:D379"/>
     </sheetView>

--- a/R/CropModels/Soybean/SoybeanParams.xlsx
+++ b/R/CropModels/Soybean/SoybeanParams.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="434">
   <si>
     <t>MG</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>M GROUP 10</t>
+  </si>
+  <si>
+    <t>soybean5_HQ</t>
   </si>
 </sst>
 </file>
@@ -1782,13 +1785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19:B29"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5871,6 +5874,147 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F30" s="3">
+        <v>19</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="I30" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J30" s="3">
+        <v>26</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="L30" s="3">
+        <v>375</v>
+      </c>
+      <c r="M30" s="3">
+        <v>180</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="P30" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R30" s="3">
+        <v>10</v>
+      </c>
+      <c r="S30" s="3">
+        <v>77</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="V30" s="3" t="str">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!V$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v xml:space="preserve">MATURITY GROUP 3  </v>
+      </c>
+      <c r="W30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!W$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="X30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!X$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Y$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!Z$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AA$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AB30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AB$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AC$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AD30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AD$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AE$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AF$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="AG30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AG$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AH30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AH$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="AI30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AI$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AJ$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AK30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AK$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AL$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AM30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AM$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AN30" s="3">
+        <f>VLOOKUP($C30,SBGRO047.ECO!$A$1:$T$35,MATCH(SBGRO047.CUL!AN$1,SBGRO047.ECO!$A$1:$T$1,0),FALSE)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5882,7 +6026,7 @@
           <x14:formula1>
             <xm:f>SBGRO047.ECO!$A$2:$A$37</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C16</xm:sqref>
+          <xm:sqref>C2:C16 C30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
